--- a/tmp_output/docked_raw/docked_raw_2022-03-18.xlsx
+++ b/tmp_output/docked_raw/docked_raw_2022-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="362">
   <si>
     <t>員編</t>
   </si>
@@ -923,180 +923,21 @@
     <t>FF4771BXFX2+AA9181BXFX4</t>
   </si>
   <si>
-    <t>4710731171813</t>
-  </si>
-  <si>
-    <t>4710273811628</t>
-  </si>
-  <si>
-    <t>4710273811581</t>
-  </si>
-  <si>
-    <t>4710273811659</t>
-  </si>
-  <si>
-    <t>4710273811734</t>
-  </si>
-  <si>
-    <t>4710273811918</t>
-  </si>
-  <si>
-    <t>4710273811895</t>
-  </si>
-  <si>
-    <t>4710273811901</t>
-  </si>
-  <si>
-    <t>4710273811888</t>
-  </si>
-  <si>
-    <t>4710273811819</t>
-  </si>
-  <si>
-    <t>4710273811826</t>
-  </si>
-  <si>
-    <t>4710273811857</t>
-  </si>
-  <si>
-    <t>4710273811765</t>
-  </si>
-  <si>
-    <t>4710273811840</t>
-  </si>
-  <si>
-    <t>4710273811758</t>
-  </si>
-  <si>
-    <t>4710273811772</t>
-  </si>
-  <si>
-    <t>4710273811727</t>
-  </si>
-  <si>
-    <t>4710562210088</t>
-  </si>
-  <si>
-    <t>4710562218381</t>
-  </si>
-  <si>
-    <t>4710562218374</t>
-  </si>
-  <si>
-    <t>4710562210125</t>
-  </si>
-  <si>
-    <t>4710562210446</t>
-  </si>
-  <si>
-    <t>4710562210095</t>
-  </si>
-  <si>
-    <t>4710562210194</t>
-  </si>
-  <si>
-    <t>4710562210040</t>
-  </si>
-  <si>
-    <t>4710562210101</t>
-  </si>
-  <si>
-    <t>4710562210057</t>
-  </si>
-  <si>
-    <t>4710562210262</t>
-  </si>
-  <si>
-    <t>4710562210118</t>
-  </si>
-  <si>
-    <t>4710562210439</t>
-  </si>
-  <si>
-    <t>043647465016</t>
-  </si>
-  <si>
-    <t>043647330017</t>
-  </si>
-  <si>
-    <t>043647190017</t>
-  </si>
-  <si>
-    <t>043647130013</t>
-  </si>
-  <si>
-    <t>40122731</t>
-  </si>
-  <si>
-    <t>45212017</t>
-  </si>
-  <si>
-    <t>4751017401682</t>
-  </si>
-  <si>
-    <t>3023470010017</t>
-  </si>
-  <si>
-    <t>4751017402931</t>
-  </si>
-  <si>
-    <t>45186103</t>
-  </si>
-  <si>
-    <t>45186196</t>
-  </si>
-  <si>
-    <t>45185816</t>
-  </si>
-  <si>
-    <t>043647320018</t>
-  </si>
-  <si>
-    <t>043647010018</t>
-  </si>
-  <si>
-    <t>4710038859322</t>
-  </si>
-  <si>
     <t>D53183030X6</t>
   </si>
   <si>
     <t>J27500000X2</t>
   </si>
   <si>
-    <t>4710038859308</t>
-  </si>
-  <si>
-    <t>4710038856079</t>
-  </si>
-  <si>
-    <t>4710038856215</t>
-  </si>
-  <si>
     <t>D48220010</t>
   </si>
   <si>
-    <t>4710038859636</t>
-  </si>
-  <si>
-    <t>4710038854297</t>
-  </si>
-  <si>
     <t>D40350060X4</t>
   </si>
   <si>
-    <t>4710038853313</t>
-  </si>
-  <si>
-    <t>4710038856871</t>
-  </si>
-  <si>
     <t>D39350050X4</t>
   </si>
   <si>
-    <t>4710038853634</t>
-  </si>
-  <si>
     <t>D28030370X12</t>
   </si>
   <si>
@@ -1112,63 +953,12 @@
     <t>D53183300X6</t>
   </si>
   <si>
-    <t>4710038857915</t>
-  </si>
-  <si>
-    <t>4710038851043</t>
-  </si>
-  <si>
-    <t>4710038850862</t>
-  </si>
-  <si>
-    <t>6970115982109</t>
-  </si>
-  <si>
-    <t>4711033030099</t>
-  </si>
-  <si>
-    <t>4710898790117</t>
-  </si>
-  <si>
-    <t>4710898790179</t>
-  </si>
-  <si>
-    <t>4710898790216</t>
-  </si>
-  <si>
-    <t>4710898790070</t>
-  </si>
-  <si>
-    <t>4710898790087</t>
-  </si>
-  <si>
     <t>541AT0AC4-BK</t>
   </si>
   <si>
     <t>551AT1CC5-WT</t>
   </si>
   <si>
-    <t>4891813831822</t>
-  </si>
-  <si>
-    <t>4891813831815</t>
-  </si>
-  <si>
-    <t>4711436320162</t>
-  </si>
-  <si>
-    <t>5013197196505</t>
-  </si>
-  <si>
-    <t>4716937001633</t>
-  </si>
-  <si>
-    <t>4716937001558</t>
-  </si>
-  <si>
-    <t>4716203032804</t>
-  </si>
-  <si>
     <t>13826954917_115650565241</t>
   </si>
   <si>
@@ -1178,36 +968,6 @@
     <t>13726949189_160610681079</t>
   </si>
   <si>
-    <t>4718231102146</t>
-  </si>
-  <si>
-    <t>4718231102153</t>
-  </si>
-  <si>
-    <t>4718231101927</t>
-  </si>
-  <si>
-    <t>4711271035771</t>
-  </si>
-  <si>
-    <t>4711271024089</t>
-  </si>
-  <si>
-    <t>4715168014153</t>
-  </si>
-  <si>
-    <t>4715168011695</t>
-  </si>
-  <si>
-    <t>4715168014160</t>
-  </si>
-  <si>
-    <t>4711271034538</t>
-  </si>
-  <si>
-    <t>4716203032477</t>
-  </si>
-  <si>
     <t>9028-1-U</t>
   </si>
   <si>
@@ -1235,105 +995,6 @@
     <t>7697365451_170310181812</t>
   </si>
   <si>
-    <t>4719883341457</t>
-  </si>
-  <si>
-    <t>4710155180262</t>
-  </si>
-  <si>
-    <t>4547691783776</t>
-  </si>
-  <si>
-    <t>4547691702319</t>
-  </si>
-  <si>
-    <t>4547691714411</t>
-  </si>
-  <si>
-    <t>4547691703767</t>
-  </si>
-  <si>
-    <t>4710562219227</t>
-  </si>
-  <si>
-    <t>4716786423907</t>
-  </si>
-  <si>
-    <t>4716786426571</t>
-  </si>
-  <si>
-    <t>4716786423969</t>
-  </si>
-  <si>
-    <t>4716786423785</t>
-  </si>
-  <si>
-    <t>4716786424010</t>
-  </si>
-  <si>
-    <t>4717954350032</t>
-  </si>
-  <si>
-    <t>4713667080235</t>
-  </si>
-  <si>
-    <t>4713667031282</t>
-  </si>
-  <si>
-    <t>4713667030919</t>
-  </si>
-  <si>
-    <t>53736482</t>
-  </si>
-  <si>
-    <t>99887</t>
-  </si>
-  <si>
-    <t>4710022033783</t>
-  </si>
-  <si>
-    <t>4710022018124</t>
-  </si>
-  <si>
-    <t>4710022102793</t>
-  </si>
-  <si>
-    <t>4710022029571</t>
-  </si>
-  <si>
-    <t>4710022048206</t>
-  </si>
-  <si>
-    <t>4710022034742</t>
-  </si>
-  <si>
-    <t>4710022036265</t>
-  </si>
-  <si>
-    <t>4710022025085</t>
-  </si>
-  <si>
-    <t>4710022047681</t>
-  </si>
-  <si>
-    <t>4710022024972</t>
-  </si>
-  <si>
-    <t>4710022035923</t>
-  </si>
-  <si>
-    <t>4710022024538</t>
-  </si>
-  <si>
-    <t>4710022010401</t>
-  </si>
-  <si>
-    <t>4710022028673</t>
-  </si>
-  <si>
-    <t>4710022020615</t>
-  </si>
-  <si>
     <t>1625-11-T</t>
   </si>
   <si>
@@ -1364,45 +1025,6 @@
     <t>1630-M</t>
   </si>
   <si>
-    <t>619659181666</t>
-  </si>
-  <si>
-    <t>619659185077</t>
-  </si>
-  <si>
-    <t>4712927154068</t>
-  </si>
-  <si>
-    <t>4712927152897</t>
-  </si>
-  <si>
-    <t>4712927153573</t>
-  </si>
-  <si>
-    <t>4712927153498</t>
-  </si>
-  <si>
-    <t>4713008110010</t>
-  </si>
-  <si>
-    <t>4712927153740</t>
-  </si>
-  <si>
-    <t>4712927153733</t>
-  </si>
-  <si>
-    <t>4712927153535</t>
-  </si>
-  <si>
-    <t>4715013004780</t>
-  </si>
-  <si>
-    <t>4715013004797</t>
-  </si>
-  <si>
-    <t>4712927153610</t>
-  </si>
-  <si>
     <t>O04-WG-08</t>
   </si>
   <si>
@@ -1418,33 +1040,6 @@
     <t>O03-MX-10SU-01</t>
   </si>
   <si>
-    <t>740617298680</t>
-  </si>
-  <si>
-    <t>0760557824893</t>
-  </si>
-  <si>
-    <t>4712389914323</t>
-  </si>
-  <si>
-    <t>740617243079</t>
-  </si>
-  <si>
-    <t>619659181710</t>
-  </si>
-  <si>
-    <t>740617242874</t>
-  </si>
-  <si>
-    <t>740617301397</t>
-  </si>
-  <si>
-    <t>740617301793</t>
-  </si>
-  <si>
-    <t>4713218461940</t>
-  </si>
-  <si>
     <t>8027-T</t>
   </si>
   <si>
@@ -1463,126 +1058,9 @@
     <t>04-T-M</t>
   </si>
   <si>
-    <t>4710022024842</t>
-  </si>
-  <si>
-    <t>4710022035459</t>
-  </si>
-  <si>
-    <t>4710022027423</t>
-  </si>
-  <si>
-    <t>4710022002666</t>
-  </si>
-  <si>
-    <t>4710022031826</t>
-  </si>
-  <si>
-    <t>4710022029229</t>
-  </si>
-  <si>
-    <t>4710022042525</t>
-  </si>
-  <si>
-    <t>4710022034100</t>
-  </si>
-  <si>
-    <t>4710022028031</t>
-  </si>
-  <si>
-    <t>4710022024262</t>
-  </si>
-  <si>
-    <t>4710022030225</t>
-  </si>
-  <si>
-    <t>3605975038132</t>
-  </si>
-  <si>
-    <t>736150000316</t>
-  </si>
-  <si>
-    <t>3605970236915</t>
-  </si>
-  <si>
-    <t>3605975028836</t>
-  </si>
-  <si>
-    <t>3614272623507</t>
-  </si>
-  <si>
-    <t>3700194711719</t>
-  </si>
-  <si>
-    <t>4710829830554</t>
-  </si>
-  <si>
-    <t>4710829830868</t>
-  </si>
-  <si>
     <t>AZ01376</t>
   </si>
   <si>
-    <t>4713233862418</t>
-  </si>
-  <si>
-    <t>4713233862364</t>
-  </si>
-  <si>
-    <t>4713233869226</t>
-  </si>
-  <si>
-    <t>4901525003278</t>
-  </si>
-  <si>
-    <t>4901525003261</t>
-  </si>
-  <si>
-    <t>4901525008280</t>
-  </si>
-  <si>
-    <t>783054123221</t>
-  </si>
-  <si>
-    <t>4710678220308</t>
-  </si>
-  <si>
-    <t>471067810539101</t>
-  </si>
-  <si>
-    <t>4901525008297</t>
-  </si>
-  <si>
-    <t>78305421936801</t>
-  </si>
-  <si>
-    <t>78305421939901</t>
-  </si>
-  <si>
-    <t>78305421932001</t>
-  </si>
-  <si>
-    <t>78305421940501</t>
-  </si>
-  <si>
-    <t>78305421935101</t>
-  </si>
-  <si>
-    <t>78305421951701</t>
-  </si>
-  <si>
-    <t>78305421961001</t>
-  </si>
-  <si>
-    <t>4710960912164</t>
-  </si>
-  <si>
-    <t>4710960912577</t>
-  </si>
-  <si>
-    <t>5709954034783</t>
-  </si>
-  <si>
     <t>HSH630-M-W</t>
   </si>
   <si>
@@ -1604,84 +1082,6 @@
     <t>1701-M</t>
   </si>
   <si>
-    <t>34710090023120</t>
-  </si>
-  <si>
-    <t>4710090053355</t>
-  </si>
-  <si>
-    <t>4901201144486</t>
-  </si>
-  <si>
-    <t>4710090053317</t>
-  </si>
-  <si>
-    <t>4901201144479</t>
-  </si>
-  <si>
-    <t>4710090060469</t>
-  </si>
-  <si>
-    <t>4710090060827</t>
-  </si>
-  <si>
-    <t>4710090053348</t>
-  </si>
-  <si>
-    <t>4710090053324</t>
-  </si>
-  <si>
-    <t>4710090052303</t>
-  </si>
-  <si>
-    <t>4901201101236</t>
-  </si>
-  <si>
-    <t>4710090052327</t>
-  </si>
-  <si>
-    <t>9000100753401</t>
-  </si>
-  <si>
-    <t>9000100753371</t>
-  </si>
-  <si>
-    <t>9000100956192</t>
-  </si>
-  <si>
-    <t>4902430759168</t>
-  </si>
-  <si>
-    <t>4902430759502</t>
-  </si>
-  <si>
-    <t>4902430363921</t>
-  </si>
-  <si>
-    <t>4902430363938</t>
-  </si>
-  <si>
-    <t>9000100753340</t>
-  </si>
-  <si>
-    <t>4901616011014</t>
-  </si>
-  <si>
-    <t>4901616011021</t>
-  </si>
-  <si>
-    <t>4901616011007</t>
-  </si>
-  <si>
-    <t>9000101323047</t>
-  </si>
-  <si>
-    <t>4006387105099</t>
-  </si>
-  <si>
-    <t>4006387105129</t>
-  </si>
-  <si>
     <t>180國際條碼不符</t>
   </si>
   <si>
@@ -1698,144 +1098,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1,200</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>80</t>
   </si>
   <si>
     <t>2022-03-18</t>
@@ -2252,19 +1514,19 @@
         <v>295</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
-      </c>
-      <c r="H2" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
       </c>
       <c r="I2" s="2">
         <v>44638.29633101852</v>
       </c>
       <c r="J2" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -2281,19 +1543,19 @@
         <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G3" t="s">
-        <v>560</v>
-      </c>
-      <c r="H3" t="s">
-        <v>562</v>
+        <v>360</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
       <c r="I3" s="2">
         <v>44638.29534722222</v>
       </c>
       <c r="J3" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -2310,19 +1572,19 @@
         <v>297</v>
       </c>
       <c r="F4" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G4" t="s">
-        <v>560</v>
-      </c>
-      <c r="H4" t="s">
-        <v>563</v>
+        <v>360</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
       </c>
       <c r="I4" s="2">
         <v>44638.29592592592</v>
       </c>
       <c r="J4" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -2339,19 +1601,19 @@
         <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>560</v>
-      </c>
-      <c r="H5" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
       </c>
       <c r="I5" s="2">
         <v>44638.29633101852</v>
       </c>
       <c r="J5" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -2368,19 +1630,19 @@
         <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G6" t="s">
-        <v>560</v>
-      </c>
-      <c r="H6" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
       <c r="I6" s="2">
         <v>44638.29667824074</v>
       </c>
       <c r="J6" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -2397,19 +1659,19 @@
         <v>300</v>
       </c>
       <c r="F7" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G7" t="s">
-        <v>560</v>
-      </c>
-      <c r="H7" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
       </c>
       <c r="I7" s="2">
         <v>44638.29721064815</v>
       </c>
       <c r="J7" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -2426,19 +1688,19 @@
         <v>301</v>
       </c>
       <c r="F8" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G8" t="s">
-        <v>560</v>
-      </c>
-      <c r="H8" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
       </c>
       <c r="I8" s="2">
         <v>44638.29730324074</v>
       </c>
       <c r="J8" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -2451,23 +1713,23 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>302</v>
+      <c r="C9">
+        <v>4710731171813</v>
       </c>
       <c r="F9" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G9" t="s">
-        <v>560</v>
-      </c>
-      <c r="H9" t="s">
-        <v>564</v>
+        <v>360</v>
+      </c>
+      <c r="H9">
+        <v>96</v>
       </c>
       <c r="I9" s="2">
         <v>44638.29791666667</v>
       </c>
       <c r="J9" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -2480,23 +1742,23 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>303</v>
+      <c r="C10">
+        <v>4710273811628</v>
       </c>
       <c r="F10" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G10" t="s">
-        <v>560</v>
-      </c>
-      <c r="H10" t="s">
-        <v>563</v>
+        <v>360</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
       </c>
       <c r="I10" s="2">
         <v>44638.31780092593</v>
       </c>
       <c r="J10" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -2509,23 +1771,23 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>304</v>
+      <c r="C11">
+        <v>4710273811581</v>
       </c>
       <c r="F11" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G11" t="s">
-        <v>560</v>
-      </c>
-      <c r="H11" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
       </c>
       <c r="I11" s="2">
         <v>44638.31783564815</v>
       </c>
       <c r="J11" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -2538,23 +1800,23 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>305</v>
+      <c r="C12">
+        <v>4710273811659</v>
       </c>
       <c r="F12" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
-        <v>560</v>
-      </c>
-      <c r="H12" t="s">
-        <v>566</v>
+        <v>360</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>44638.31797453704</v>
       </c>
       <c r="J12" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -2567,23 +1829,23 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>306</v>
+      <c r="C13">
+        <v>4710273811734</v>
       </c>
       <c r="F13" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G13" t="s">
-        <v>560</v>
-      </c>
-      <c r="H13" t="s">
-        <v>563</v>
+        <v>360</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
       </c>
       <c r="I13" s="2">
         <v>44638.31799768518</v>
       </c>
       <c r="J13" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -2596,23 +1858,23 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>307</v>
+      <c r="C14">
+        <v>4710273811918</v>
       </c>
       <c r="F14" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G14" t="s">
-        <v>560</v>
-      </c>
-      <c r="H14" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
       </c>
       <c r="I14" s="2">
         <v>44638.31870370371</v>
       </c>
       <c r="J14" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -2625,23 +1887,23 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>308</v>
+      <c r="C15">
+        <v>4710273811895</v>
       </c>
       <c r="F15" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G15" t="s">
-        <v>560</v>
-      </c>
-      <c r="H15" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
       </c>
       <c r="I15" s="2">
         <v>44638.31881944444</v>
       </c>
       <c r="J15" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2654,23 +1916,23 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>309</v>
+      <c r="C16">
+        <v>4710273811901</v>
       </c>
       <c r="F16" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G16" t="s">
-        <v>560</v>
-      </c>
-      <c r="H16" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
       </c>
       <c r="I16" s="2">
         <v>44638.31894675926</v>
       </c>
       <c r="J16" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2683,23 +1945,23 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>310</v>
+      <c r="C17">
+        <v>4710273811888</v>
       </c>
       <c r="F17" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G17" t="s">
-        <v>560</v>
-      </c>
-      <c r="H17" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
       </c>
       <c r="I17" s="2">
         <v>44638.31903935185</v>
       </c>
       <c r="J17" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2712,23 +1974,23 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>311</v>
+      <c r="C18">
+        <v>4710273811819</v>
       </c>
       <c r="F18" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G18" t="s">
-        <v>560</v>
-      </c>
-      <c r="H18" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
       </c>
       <c r="I18" s="2">
         <v>44638.31913194444</v>
       </c>
       <c r="J18" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2741,23 +2003,23 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>312</v>
+      <c r="C19">
+        <v>4710273811826</v>
       </c>
       <c r="F19" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G19" t="s">
-        <v>560</v>
-      </c>
-      <c r="H19" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
       </c>
       <c r="I19" s="2">
         <v>44638.32</v>
       </c>
       <c r="J19" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K19">
         <v>7</v>
@@ -2770,23 +2032,23 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>313</v>
+      <c r="C20">
+        <v>4710273811857</v>
       </c>
       <c r="F20" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G20" t="s">
-        <v>560</v>
-      </c>
-      <c r="H20" t="s">
-        <v>567</v>
+        <v>360</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
       </c>
       <c r="I20" s="2">
         <v>44638.3200462963</v>
       </c>
       <c r="J20" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2799,23 +2061,23 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>314</v>
+      <c r="C21">
+        <v>4710273811765</v>
       </c>
       <c r="F21" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G21" t="s">
-        <v>560</v>
-      </c>
-      <c r="H21" t="s">
-        <v>563</v>
+        <v>360</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
       </c>
       <c r="I21" s="2">
         <v>44638.32012731482</v>
       </c>
       <c r="J21" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2828,23 +2090,23 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>315</v>
+      <c r="C22">
+        <v>4710273811840</v>
       </c>
       <c r="F22" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G22" t="s">
-        <v>560</v>
-      </c>
-      <c r="H22" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
       </c>
       <c r="I22" s="2">
         <v>44638.32019675926</v>
       </c>
       <c r="J22" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2857,23 +2119,23 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>316</v>
+      <c r="C23">
+        <v>4710273811758</v>
       </c>
       <c r="F23" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G23" t="s">
-        <v>560</v>
-      </c>
-      <c r="H23" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
       </c>
       <c r="I23" s="2">
         <v>44638.32082175926</v>
       </c>
       <c r="J23" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2886,23 +2148,23 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>317</v>
+      <c r="C24">
+        <v>4710273811772</v>
       </c>
       <c r="F24" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G24" t="s">
-        <v>560</v>
-      </c>
-      <c r="H24" t="s">
-        <v>563</v>
+        <v>360</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
       </c>
       <c r="I24" s="2">
         <v>44638.32087962963</v>
       </c>
       <c r="J24" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -2915,23 +2177,23 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>318</v>
+      <c r="C25">
+        <v>4710273811727</v>
       </c>
       <c r="F25" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G25" t="s">
-        <v>560</v>
-      </c>
-      <c r="H25" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
       </c>
       <c r="I25" s="2">
         <v>44638.3209375</v>
       </c>
       <c r="J25" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2944,23 +2206,23 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>319</v>
+      <c r="C26">
+        <v>4710562210088</v>
       </c>
       <c r="F26" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G26" t="s">
-        <v>560</v>
-      </c>
-      <c r="H26" t="s">
-        <v>568</v>
+        <v>360</v>
+      </c>
+      <c r="H26">
+        <v>660</v>
       </c>
       <c r="I26" s="2">
         <v>44638.37306712963</v>
       </c>
       <c r="J26" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -2973,26 +2235,26 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>320</v>
+      <c r="C27">
+        <v>4710562218381</v>
       </c>
       <c r="D27" t="s">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="F27" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G27" t="s">
-        <v>560</v>
-      </c>
-      <c r="H27" t="s">
-        <v>569</v>
+        <v>360</v>
+      </c>
+      <c r="H27">
+        <v>180</v>
       </c>
       <c r="I27" s="2">
         <v>44638.38148148148</v>
       </c>
       <c r="J27" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K27">
         <v>9</v>
@@ -3005,26 +2267,26 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>320</v>
+      <c r="C28">
+        <v>4710562218381</v>
       </c>
       <c r="D28" t="s">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="F28" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G28" t="s">
-        <v>560</v>
-      </c>
-      <c r="H28" t="s">
-        <v>569</v>
+        <v>360</v>
+      </c>
+      <c r="H28">
+        <v>180</v>
       </c>
       <c r="I28" s="2">
         <v>44638.38157407408</v>
       </c>
       <c r="J28" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3037,26 +2299,26 @@
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>321</v>
+      <c r="C29">
+        <v>4710562218374</v>
       </c>
       <c r="D29" t="s">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="F29" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G29" t="s">
-        <v>560</v>
-      </c>
-      <c r="H29" t="s">
-        <v>569</v>
+        <v>360</v>
+      </c>
+      <c r="H29">
+        <v>180</v>
       </c>
       <c r="I29" s="2">
         <v>44638.38417824074</v>
       </c>
       <c r="J29" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -3069,26 +2331,26 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>321</v>
+      <c r="C30">
+        <v>4710562218374</v>
       </c>
       <c r="D30" t="s">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="F30" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G30" t="s">
-        <v>560</v>
-      </c>
-      <c r="H30" t="s">
-        <v>569</v>
+        <v>360</v>
+      </c>
+      <c r="H30">
+        <v>180</v>
       </c>
       <c r="I30" s="2">
         <v>44638.385625</v>
       </c>
       <c r="J30" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -3101,26 +2363,26 @@
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>322</v>
+      <c r="C31">
+        <v>4710562210125</v>
       </c>
       <c r="D31" t="s">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="F31" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G31" t="s">
-        <v>560</v>
-      </c>
-      <c r="H31" t="s">
-        <v>570</v>
+        <v>360</v>
+      </c>
+      <c r="H31">
+        <v>120</v>
       </c>
       <c r="I31" s="2">
         <v>44638.38964120371</v>
       </c>
       <c r="J31" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K31">
         <v>9</v>
@@ -3133,23 +2395,23 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
-        <v>323</v>
+      <c r="C32">
+        <v>4710562210446</v>
       </c>
       <c r="F32" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G32" t="s">
-        <v>560</v>
-      </c>
-      <c r="H32" t="s">
-        <v>571</v>
+        <v>360</v>
+      </c>
+      <c r="H32">
+        <v>144</v>
       </c>
       <c r="I32" s="2">
         <v>44638.39306712963</v>
       </c>
       <c r="J32" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3162,26 +2424,26 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>324</v>
+      <c r="C33">
+        <v>4710562210095</v>
       </c>
       <c r="D33" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G33" t="s">
-        <v>560</v>
-      </c>
-      <c r="H33" t="s">
-        <v>572</v>
+        <v>360</v>
+      </c>
+      <c r="H33">
+        <v>240</v>
       </c>
       <c r="I33" s="2">
         <v>44638.39436342593</v>
       </c>
       <c r="J33" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -3194,23 +2456,23 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
-        <v>325</v>
+      <c r="C34">
+        <v>4710562210194</v>
       </c>
       <c r="F34" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G34" t="s">
-        <v>560</v>
-      </c>
-      <c r="H34" t="s">
-        <v>564</v>
+        <v>360</v>
+      </c>
+      <c r="H34">
+        <v>96</v>
       </c>
       <c r="I34" s="2">
         <v>44638.39899305555</v>
       </c>
       <c r="J34" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K34">
         <v>9</v>
@@ -3223,23 +2485,23 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>326</v>
+      <c r="C35">
+        <v>4710562210040</v>
       </c>
       <c r="F35" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
-        <v>560</v>
-      </c>
-      <c r="H35" t="s">
-        <v>573</v>
+        <v>360</v>
+      </c>
+      <c r="H35">
+        <v>36</v>
       </c>
       <c r="I35" s="2">
         <v>44638.39947916667</v>
       </c>
       <c r="J35" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3252,23 +2514,23 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
-        <v>327</v>
+      <c r="C36">
+        <v>4710562210101</v>
       </c>
       <c r="F36" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G36" t="s">
-        <v>560</v>
-      </c>
-      <c r="H36" t="s">
-        <v>574</v>
+        <v>360</v>
+      </c>
+      <c r="H36">
+        <v>72</v>
       </c>
       <c r="I36" s="2">
         <v>44638.39966435185</v>
       </c>
       <c r="J36" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -3281,23 +2543,23 @@
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
-        <v>328</v>
+      <c r="C37">
+        <v>4710562210057</v>
       </c>
       <c r="F37" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G37" t="s">
-        <v>560</v>
-      </c>
-      <c r="H37" t="s">
-        <v>574</v>
+        <v>360</v>
+      </c>
+      <c r="H37">
+        <v>72</v>
       </c>
       <c r="I37" s="2">
         <v>44638.39980324074</v>
       </c>
       <c r="J37" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -3310,23 +2572,23 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
-        <v>329</v>
+      <c r="C38">
+        <v>4710562210262</v>
       </c>
       <c r="F38" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
-        <v>560</v>
-      </c>
-      <c r="H38" t="s">
-        <v>573</v>
+        <v>360</v>
+      </c>
+      <c r="H38">
+        <v>36</v>
       </c>
       <c r="I38" s="2">
         <v>44638.40030092592</v>
       </c>
       <c r="J38" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -3339,23 +2601,23 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
-        <v>330</v>
+      <c r="C39">
+        <v>4710562210118</v>
       </c>
       <c r="F39" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
-        <v>560</v>
-      </c>
-      <c r="H39" t="s">
-        <v>570</v>
+        <v>360</v>
+      </c>
+      <c r="H39">
+        <v>120</v>
       </c>
       <c r="I39" s="2">
         <v>44638.40060185185</v>
       </c>
       <c r="J39" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -3368,23 +2630,23 @@
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
-        <v>331</v>
+      <c r="C40">
+        <v>4710562210439</v>
       </c>
       <c r="F40" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>560</v>
-      </c>
-      <c r="H40" t="s">
-        <v>571</v>
+        <v>360</v>
+      </c>
+      <c r="H40">
+        <v>144</v>
       </c>
       <c r="I40" s="2">
         <v>44638.40320601852</v>
       </c>
       <c r="J40" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K40">
         <v>9</v>
@@ -3397,23 +2659,23 @@
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>332</v>
+      <c r="C41">
+        <v>43647465016</v>
       </c>
       <c r="F41" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>560</v>
-      </c>
-      <c r="H41" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H41">
+        <v>24</v>
       </c>
       <c r="I41" s="2">
         <v>44638.41225694444</v>
       </c>
       <c r="J41" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -3426,23 +2688,23 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
-        <v>333</v>
+      <c r="C42">
+        <v>43647330017</v>
       </c>
       <c r="F42" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>560</v>
-      </c>
-      <c r="H42" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H42">
+        <v>24</v>
       </c>
       <c r="I42" s="2">
         <v>44638.41230324074</v>
       </c>
       <c r="J42" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -3455,23 +2717,23 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>334</v>
+      <c r="C43">
+        <v>43647190017</v>
       </c>
       <c r="F43" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G43" t="s">
-        <v>560</v>
-      </c>
-      <c r="H43" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H43">
+        <v>24</v>
       </c>
       <c r="I43" s="2">
         <v>44638.41234953704</v>
       </c>
       <c r="J43" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K43">
         <v>9</v>
@@ -3484,23 +2746,23 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>335</v>
+      <c r="C44">
+        <v>43647130013</v>
       </c>
       <c r="F44" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>560</v>
-      </c>
-      <c r="H44" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H44">
+        <v>24</v>
       </c>
       <c r="I44" s="2">
         <v>44638.41236111111</v>
       </c>
       <c r="J44" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K44">
         <v>9</v>
@@ -3513,23 +2775,23 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
-        <v>336</v>
+      <c r="C45">
+        <v>40122731</v>
       </c>
       <c r="F45" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G45" t="s">
-        <v>560</v>
-      </c>
-      <c r="H45" t="s">
-        <v>576</v>
+        <v>360</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
       </c>
       <c r="I45" s="2">
         <v>44638.41244212963</v>
       </c>
       <c r="J45" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -3542,23 +2804,23 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>337</v>
+      <c r="C46">
+        <v>45212017</v>
       </c>
       <c r="F46" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G46" t="s">
-        <v>560</v>
-      </c>
-      <c r="H46" t="s">
-        <v>564</v>
+        <v>360</v>
+      </c>
+      <c r="H46">
+        <v>96</v>
       </c>
       <c r="I46" s="2">
         <v>44638.41266203704</v>
       </c>
       <c r="J46" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -3571,23 +2833,23 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>338</v>
+      <c r="C47">
+        <v>4751017401682</v>
       </c>
       <c r="F47" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G47" t="s">
-        <v>560</v>
-      </c>
-      <c r="H47" t="s">
-        <v>577</v>
+        <v>360</v>
+      </c>
+      <c r="H47">
+        <v>48</v>
       </c>
       <c r="I47" s="2">
         <v>44638.41356481481</v>
       </c>
       <c r="J47" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -3600,23 +2862,23 @@
       <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>339</v>
+      <c r="C48">
+        <v>3023470010017</v>
       </c>
       <c r="F48" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G48" t="s">
-        <v>560</v>
-      </c>
-      <c r="H48" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H48">
+        <v>24</v>
       </c>
       <c r="I48" s="2">
         <v>44638.41362268518</v>
       </c>
       <c r="J48" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -3629,23 +2891,23 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>340</v>
+      <c r="C49">
+        <v>4751017402931</v>
       </c>
       <c r="F49" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G49" t="s">
-        <v>560</v>
-      </c>
-      <c r="H49" t="s">
-        <v>578</v>
+        <v>360</v>
+      </c>
+      <c r="H49">
+        <v>56</v>
       </c>
       <c r="I49" s="2">
         <v>44638.41365740741</v>
       </c>
       <c r="J49" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -3658,26 +2920,26 @@
       <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>341</v>
+      <c r="C50">
+        <v>45186103</v>
       </c>
       <c r="D50" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F50" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G50" t="s">
-        <v>560</v>
-      </c>
-      <c r="H50" t="s">
-        <v>578</v>
+        <v>360</v>
+      </c>
+      <c r="H50">
+        <v>56</v>
       </c>
       <c r="I50" s="2">
         <v>44638.41365740741</v>
       </c>
       <c r="J50" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K50">
         <v>9</v>
@@ -3690,23 +2952,23 @@
       <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>342</v>
+      <c r="C51">
+        <v>45186196</v>
       </c>
       <c r="F51" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G51" t="s">
-        <v>560</v>
-      </c>
-      <c r="H51" t="s">
-        <v>577</v>
+        <v>360</v>
+      </c>
+      <c r="H51">
+        <v>48</v>
       </c>
       <c r="I51" s="2">
         <v>44638.41380787037</v>
       </c>
       <c r="J51" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -3719,23 +2981,23 @@
       <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
-        <v>343</v>
+      <c r="C52">
+        <v>45185816</v>
       </c>
       <c r="F52" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G52" t="s">
-        <v>560</v>
-      </c>
-      <c r="H52" t="s">
-        <v>570</v>
+        <v>360</v>
+      </c>
+      <c r="H52">
+        <v>120</v>
       </c>
       <c r="I52" s="2">
         <v>44638.41384259259</v>
       </c>
       <c r="J52" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K52">
         <v>9</v>
@@ -3748,23 +3010,23 @@
       <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
-        <v>344</v>
+      <c r="C53">
+        <v>43647320018</v>
       </c>
       <c r="F53" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G53" t="s">
-        <v>560</v>
-      </c>
-      <c r="H53" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H53">
+        <v>24</v>
       </c>
       <c r="I53" s="2">
         <v>44638.41452546296</v>
       </c>
       <c r="J53" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -3777,23 +3039,23 @@
       <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>345</v>
+      <c r="C54">
+        <v>43647010018</v>
       </c>
       <c r="F54" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G54" t="s">
-        <v>560</v>
-      </c>
-      <c r="H54" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
       </c>
       <c r="I54" s="2">
         <v>44638.41456018519</v>
       </c>
       <c r="J54" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K54">
         <v>9</v>
@@ -3806,23 +3068,23 @@
       <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>346</v>
+      <c r="C55">
+        <v>4710038859322</v>
       </c>
       <c r="F55" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G55" t="s">
-        <v>560</v>
-      </c>
-      <c r="H55" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
       </c>
       <c r="I55" s="2">
         <v>44638.4172337963</v>
       </c>
       <c r="J55" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K55">
         <v>10</v>
@@ -3836,22 +3098,22 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="F56" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G56" t="s">
-        <v>560</v>
-      </c>
-      <c r="H56" t="s">
-        <v>580</v>
+        <v>360</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
       </c>
       <c r="I56" s="2">
         <v>44638.4174537037</v>
       </c>
       <c r="J56" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K56">
         <v>10</v>
@@ -3865,22 +3127,22 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G57" t="s">
-        <v>560</v>
-      </c>
-      <c r="H57" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H57">
+        <v>12</v>
       </c>
       <c r="I57" s="2">
         <v>44638.41756944444</v>
       </c>
       <c r="J57" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -3893,23 +3155,23 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>349</v>
+      <c r="C58">
+        <v>4710038859308</v>
       </c>
       <c r="F58" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G58" t="s">
-        <v>560</v>
-      </c>
-      <c r="H58" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H58">
+        <v>12</v>
       </c>
       <c r="I58" s="2">
         <v>44638.41797453703</v>
       </c>
       <c r="J58" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K58">
         <v>10</v>
@@ -3922,23 +3184,23 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
-        <v>350</v>
+      <c r="C59">
+        <v>4710038856079</v>
       </c>
       <c r="F59" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G59" t="s">
-        <v>560</v>
-      </c>
-      <c r="H59" t="s">
-        <v>581</v>
+        <v>360</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
       </c>
       <c r="I59" s="2">
         <v>44638.41802083333</v>
       </c>
       <c r="J59" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K59">
         <v>10</v>
@@ -3951,23 +3213,23 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
-        <v>351</v>
+      <c r="C60">
+        <v>4710038856215</v>
       </c>
       <c r="F60" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G60" t="s">
-        <v>560</v>
-      </c>
-      <c r="H60" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H60">
+        <v>24</v>
       </c>
       <c r="I60" s="2">
         <v>44638.41819444444</v>
       </c>
       <c r="J60" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K60">
         <v>10</v>
@@ -3981,22 +3243,22 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G61" t="s">
-        <v>560</v>
-      </c>
-      <c r="H61" t="s">
-        <v>582</v>
+        <v>360</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
       </c>
       <c r="I61" s="2">
         <v>44638.41825231481</v>
       </c>
       <c r="J61" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K61">
         <v>10</v>
@@ -4009,23 +3271,23 @@
       <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
-        <v>353</v>
+      <c r="C62">
+        <v>4710038859636</v>
       </c>
       <c r="F62" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G62" t="s">
-        <v>560</v>
-      </c>
-      <c r="H62" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H62">
+        <v>12</v>
       </c>
       <c r="I62" s="2">
         <v>44638.41835648148</v>
       </c>
       <c r="J62" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K62">
         <v>10</v>
@@ -4038,23 +3300,23 @@
       <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
-        <v>354</v>
+      <c r="C63">
+        <v>4710038854297</v>
       </c>
       <c r="F63" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G63" t="s">
-        <v>560</v>
-      </c>
-      <c r="H63" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
       </c>
       <c r="I63" s="2">
         <v>44638.41931712963</v>
       </c>
       <c r="J63" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K63">
         <v>10</v>
@@ -4068,22 +3330,22 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="F64" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G64" t="s">
-        <v>560</v>
-      </c>
-      <c r="H64" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
       </c>
       <c r="I64" s="2">
         <v>44638.41950231481</v>
       </c>
       <c r="J64" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -4096,23 +3358,23 @@
       <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
-        <v>356</v>
+      <c r="C65">
+        <v>4710038853313</v>
       </c>
       <c r="F65" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G65" t="s">
-        <v>560</v>
-      </c>
-      <c r="H65" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
       </c>
       <c r="I65" s="2">
         <v>44638.41954861111</v>
       </c>
       <c r="J65" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K65">
         <v>10</v>
@@ -4125,23 +3387,23 @@
       <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
-        <v>357</v>
+      <c r="C66">
+        <v>4710038856871</v>
       </c>
       <c r="F66" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G66" t="s">
-        <v>560</v>
-      </c>
-      <c r="H66" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
       </c>
       <c r="I66" s="2">
         <v>44638.41958333334</v>
       </c>
       <c r="J66" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -4155,22 +3417,22 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="F67" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G67" t="s">
-        <v>560</v>
-      </c>
-      <c r="H67" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
       </c>
       <c r="I67" s="2">
         <v>44638.41994212963</v>
       </c>
       <c r="J67" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -4183,23 +3445,23 @@
       <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
-        <v>359</v>
+      <c r="C68">
+        <v>4710038853634</v>
       </c>
       <c r="F68" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G68" t="s">
-        <v>560</v>
-      </c>
-      <c r="H68" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
       </c>
       <c r="I68" s="2">
         <v>44638.42015046296</v>
       </c>
       <c r="J68" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -4213,22 +3475,22 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="F69" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G69" t="s">
-        <v>560</v>
-      </c>
-      <c r="H69" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
       </c>
       <c r="I69" s="2">
         <v>44638.42025462963</v>
       </c>
       <c r="J69" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K69">
         <v>10</v>
@@ -4242,22 +3504,22 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G70" t="s">
-        <v>560</v>
-      </c>
-      <c r="H70" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
       </c>
       <c r="I70" s="2">
         <v>44638.42056712963</v>
       </c>
       <c r="J70" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K70">
         <v>10</v>
@@ -4271,22 +3533,22 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="F71" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G71" t="s">
-        <v>560</v>
-      </c>
-      <c r="H71" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H71">
+        <v>12</v>
       </c>
       <c r="I71" s="2">
         <v>44638.42342592592</v>
       </c>
       <c r="J71" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -4300,22 +3562,22 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="F72" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G72" t="s">
-        <v>560</v>
-      </c>
-      <c r="H72" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
       </c>
       <c r="I72" s="2">
         <v>44638.42372685186</v>
       </c>
       <c r="J72" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -4329,22 +3591,22 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="F73" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G73" t="s">
-        <v>560</v>
-      </c>
-      <c r="H73" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H73">
+        <v>12</v>
       </c>
       <c r="I73" s="2">
         <v>44638.42402777778</v>
       </c>
       <c r="J73" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K73">
         <v>10</v>
@@ -4357,23 +3619,23 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" t="s">
-        <v>365</v>
+      <c r="C74">
+        <v>4710038857915</v>
       </c>
       <c r="F74" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G74" t="s">
-        <v>560</v>
-      </c>
-      <c r="H74" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H74">
+        <v>24</v>
       </c>
       <c r="I74" s="2">
         <v>44638.42439814815</v>
       </c>
       <c r="J74" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -4386,23 +3648,23 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
-        <v>366</v>
+      <c r="C75">
+        <v>4710038851043</v>
       </c>
       <c r="F75" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G75" t="s">
-        <v>560</v>
-      </c>
-      <c r="H75" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H75">
+        <v>12</v>
       </c>
       <c r="I75" s="2">
         <v>44638.42443287037</v>
       </c>
       <c r="J75" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K75">
         <v>10</v>
@@ -4415,23 +3677,23 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
-        <v>367</v>
+      <c r="C76">
+        <v>4710038850862</v>
       </c>
       <c r="F76" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G76" t="s">
-        <v>560</v>
-      </c>
-      <c r="H76" t="s">
-        <v>577</v>
+        <v>360</v>
+      </c>
+      <c r="H76">
+        <v>48</v>
       </c>
       <c r="I76" s="2">
         <v>44638.42451388889</v>
       </c>
       <c r="J76" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -4444,23 +3706,23 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
-        <v>368</v>
+      <c r="C77">
+        <v>6970115982109</v>
       </c>
       <c r="F77" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G77" t="s">
-        <v>560</v>
-      </c>
-      <c r="H77" t="s">
-        <v>584</v>
+        <v>360</v>
+      </c>
+      <c r="H77">
+        <v>200</v>
       </c>
       <c r="I77" s="2">
         <v>44638.42579861111</v>
       </c>
       <c r="J77" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -4473,23 +3735,23 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>369</v>
+      <c r="C78">
+        <v>4711033030099</v>
       </c>
       <c r="F78" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G78" t="s">
-        <v>560</v>
-      </c>
-      <c r="H78" t="s">
-        <v>585</v>
+        <v>360</v>
+      </c>
+      <c r="H78">
+        <v>60</v>
       </c>
       <c r="I78" s="2">
         <v>44638.42652777778</v>
       </c>
       <c r="J78" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K78">
         <v>10</v>
@@ -4502,23 +3764,23 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
-        <v>370</v>
+      <c r="C79">
+        <v>4710898790117</v>
       </c>
       <c r="F79" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G79" t="s">
-        <v>560</v>
-      </c>
-      <c r="H79" t="s">
-        <v>566</v>
+        <v>360</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
       </c>
       <c r="I79" s="2">
         <v>44638.42659722222</v>
       </c>
       <c r="J79" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K79">
         <v>10</v>
@@ -4531,23 +3793,23 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
-        <v>371</v>
+      <c r="C80">
+        <v>4710898790179</v>
       </c>
       <c r="F80" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G80" t="s">
-        <v>560</v>
-      </c>
-      <c r="H80" t="s">
-        <v>586</v>
+        <v>360</v>
+      </c>
+      <c r="H80">
+        <v>15</v>
       </c>
       <c r="I80" s="2">
         <v>44638.42664351852</v>
       </c>
       <c r="J80" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K80">
         <v>10</v>
@@ -4560,23 +3822,23 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
-        <v>372</v>
+      <c r="C81">
+        <v>4710898790216</v>
       </c>
       <c r="F81" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G81" t="s">
-        <v>560</v>
-      </c>
-      <c r="H81" t="s">
-        <v>587</v>
+        <v>360</v>
+      </c>
+      <c r="H81">
+        <v>115</v>
       </c>
       <c r="I81" s="2">
         <v>44638.42673611111</v>
       </c>
       <c r="J81" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K81">
         <v>10</v>
@@ -4589,23 +3851,23 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
-        <v>373</v>
+      <c r="C82">
+        <v>4710898790070</v>
       </c>
       <c r="F82" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G82" t="s">
-        <v>560</v>
-      </c>
-      <c r="H82" t="s">
-        <v>572</v>
+        <v>360</v>
+      </c>
+      <c r="H82">
+        <v>240</v>
       </c>
       <c r="I82" s="2">
         <v>44638.42696759259</v>
       </c>
       <c r="J82" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K82">
         <v>10</v>
@@ -4618,23 +3880,23 @@
       <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
-        <v>374</v>
+      <c r="C83">
+        <v>4710898790087</v>
       </c>
       <c r="F83" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G83" t="s">
-        <v>560</v>
-      </c>
-      <c r="H83" t="s">
-        <v>572</v>
+        <v>360</v>
+      </c>
+      <c r="H83">
+        <v>240</v>
       </c>
       <c r="I83" s="2">
         <v>44638.42708333334</v>
       </c>
       <c r="J83" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K83">
         <v>10</v>
@@ -4648,22 +3910,22 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="F84" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G84" t="s">
-        <v>560</v>
-      </c>
-      <c r="H84" t="s">
-        <v>563</v>
+        <v>360</v>
+      </c>
+      <c r="H84">
+        <v>40</v>
       </c>
       <c r="I84" s="2">
         <v>44638.43469907407</v>
       </c>
       <c r="J84" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4677,22 +3939,22 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G85" t="s">
-        <v>560</v>
-      </c>
-      <c r="H85" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H85">
+        <v>50</v>
       </c>
       <c r="I85" s="2">
         <v>44638.43592592593</v>
       </c>
       <c r="J85" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K85">
         <v>10</v>
@@ -4705,23 +3967,23 @@
       <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
-        <v>377</v>
+      <c r="C86">
+        <v>4891813831822</v>
       </c>
       <c r="F86" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G86" t="s">
-        <v>560</v>
-      </c>
-      <c r="H86" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
       </c>
       <c r="I86" s="2">
         <v>44638.45005787037</v>
       </c>
       <c r="J86" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -4734,23 +3996,23 @@
       <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
-        <v>378</v>
+      <c r="C87">
+        <v>4891813831815</v>
       </c>
       <c r="F87" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G87" t="s">
-        <v>560</v>
-      </c>
-      <c r="H87" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
       </c>
       <c r="I87" s="2">
         <v>44638.45023148148</v>
       </c>
       <c r="J87" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -4763,23 +4025,23 @@
       <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
-        <v>379</v>
+      <c r="C88">
+        <v>4711436320162</v>
       </c>
       <c r="F88" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G88" t="s">
-        <v>560</v>
-      </c>
-      <c r="H88" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
       </c>
       <c r="I88" s="2">
         <v>44638.4502662037</v>
       </c>
       <c r="J88" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -4792,23 +4054,23 @@
       <c r="B89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
-        <v>380</v>
+      <c r="C89">
+        <v>5013197196505</v>
       </c>
       <c r="F89" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G89" t="s">
-        <v>560</v>
-      </c>
-      <c r="H89" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
       </c>
       <c r="I89" s="2">
         <v>44638.45043981481</v>
       </c>
       <c r="J89" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K89">
         <v>10</v>
@@ -4821,23 +4083,23 @@
       <c r="B90" t="s">
         <v>99</v>
       </c>
-      <c r="C90" t="s">
-        <v>381</v>
+      <c r="C90">
+        <v>4716937001633</v>
       </c>
       <c r="F90" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G90" t="s">
-        <v>560</v>
-      </c>
-      <c r="H90" t="s">
-        <v>572</v>
+        <v>360</v>
+      </c>
+      <c r="H90">
+        <v>240</v>
       </c>
       <c r="I90" s="2">
         <v>44638.49959490741</v>
       </c>
       <c r="J90" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K90">
         <v>11</v>
@@ -4850,23 +4112,23 @@
       <c r="B91" t="s">
         <v>100</v>
       </c>
-      <c r="C91" t="s">
-        <v>382</v>
+      <c r="C91">
+        <v>4716937001558</v>
       </c>
       <c r="F91" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G91" t="s">
-        <v>560</v>
-      </c>
-      <c r="H91" t="s">
-        <v>589</v>
+        <v>360</v>
+      </c>
+      <c r="H91">
+        <v>960</v>
       </c>
       <c r="I91" s="2">
         <v>44638.5083912037</v>
       </c>
       <c r="J91" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K91">
         <v>12</v>
@@ -4879,23 +4141,23 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
-        <v>383</v>
+      <c r="C92">
+        <v>4716203032804</v>
       </c>
       <c r="F92" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G92" t="s">
-        <v>560</v>
-      </c>
-      <c r="H92" t="s">
-        <v>590</v>
+        <v>360</v>
+      </c>
+      <c r="H92">
+        <v>300</v>
       </c>
       <c r="I92" s="2">
         <v>44638.52578703704</v>
       </c>
       <c r="J92" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K92">
         <v>12</v>
@@ -4909,22 +4171,22 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="F93" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G93" t="s">
-        <v>560</v>
-      </c>
-      <c r="H93" t="s">
-        <v>591</v>
+        <v>360</v>
+      </c>
+      <c r="H93">
+        <v>32</v>
       </c>
       <c r="I93" s="2">
         <v>44638.52886574074</v>
       </c>
       <c r="J93" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K93">
         <v>12</v>
@@ -4938,22 +4200,22 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>385</v>
+        <v>315</v>
       </c>
       <c r="F94" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G94" t="s">
-        <v>560</v>
-      </c>
-      <c r="H94" t="s">
-        <v>591</v>
+        <v>360</v>
+      </c>
+      <c r="H94">
+        <v>32</v>
       </c>
       <c r="I94" s="2">
         <v>44638.52896990741</v>
       </c>
       <c r="J94" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K94">
         <v>12</v>
@@ -4967,22 +4229,22 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="F95" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G95" t="s">
-        <v>560</v>
-      </c>
-      <c r="H95" t="s">
-        <v>591</v>
+        <v>360</v>
+      </c>
+      <c r="H95">
+        <v>32</v>
       </c>
       <c r="I95" s="2">
         <v>44638.52912037037</v>
       </c>
       <c r="J95" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K95">
         <v>12</v>
@@ -4995,23 +4257,23 @@
       <c r="B96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>387</v>
+      <c r="C96">
+        <v>4718231102146</v>
       </c>
       <c r="F96" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G96" t="s">
-        <v>560</v>
-      </c>
-      <c r="H96" t="s">
-        <v>582</v>
+        <v>360</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
       </c>
       <c r="I96" s="2">
         <v>44638.52929398148</v>
       </c>
       <c r="J96" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K96">
         <v>12</v>
@@ -5024,23 +4286,23 @@
       <c r="B97" t="s">
         <v>106</v>
       </c>
-      <c r="C97" t="s">
-        <v>388</v>
+      <c r="C97">
+        <v>4718231102153</v>
       </c>
       <c r="F97" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G97" t="s">
-        <v>560</v>
-      </c>
-      <c r="H97" t="s">
-        <v>592</v>
+        <v>360</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
       </c>
       <c r="I97" s="2">
         <v>44638.52943287037</v>
       </c>
       <c r="J97" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K97">
         <v>12</v>
@@ -5053,23 +4315,23 @@
       <c r="B98" t="s">
         <v>107</v>
       </c>
-      <c r="C98" t="s">
-        <v>389</v>
+      <c r="C98">
+        <v>4718231101927</v>
       </c>
       <c r="F98" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G98" t="s">
-        <v>560</v>
-      </c>
-      <c r="H98" t="s">
-        <v>582</v>
+        <v>360</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
       </c>
       <c r="I98" s="2">
         <v>44638.52950231481</v>
       </c>
       <c r="J98" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K98">
         <v>12</v>
@@ -5082,23 +4344,23 @@
       <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C99" t="s">
-        <v>390</v>
+      <c r="C99">
+        <v>4711271035771</v>
       </c>
       <c r="F99" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G99" t="s">
-        <v>560</v>
-      </c>
-      <c r="H99" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H99">
+        <v>12</v>
       </c>
       <c r="I99" s="2">
         <v>44638.5297337963</v>
       </c>
       <c r="J99" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K99">
         <v>12</v>
@@ -5111,23 +4373,23 @@
       <c r="B100" t="s">
         <v>109</v>
       </c>
-      <c r="C100" t="s">
-        <v>391</v>
+      <c r="C100">
+        <v>4711271024089</v>
       </c>
       <c r="F100" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G100" t="s">
-        <v>560</v>
-      </c>
-      <c r="H100" t="s">
-        <v>580</v>
+        <v>360</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
       </c>
       <c r="I100" s="2">
         <v>44638.52981481481</v>
       </c>
       <c r="J100" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K100">
         <v>12</v>
@@ -5140,23 +4402,23 @@
       <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
-        <v>392</v>
+      <c r="C101">
+        <v>4715168014153</v>
       </c>
       <c r="F101" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G101" t="s">
-        <v>560</v>
-      </c>
-      <c r="H101" t="s">
-        <v>562</v>
+        <v>360</v>
+      </c>
+      <c r="H101">
+        <v>10</v>
       </c>
       <c r="I101" s="2">
         <v>44638.52989583334</v>
       </c>
       <c r="J101" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K101">
         <v>12</v>
@@ -5169,23 +4431,23 @@
       <c r="B102" t="s">
         <v>111</v>
       </c>
-      <c r="C102" t="s">
-        <v>393</v>
+      <c r="C102">
+        <v>4715168011695</v>
       </c>
       <c r="F102" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G102" t="s">
-        <v>560</v>
-      </c>
-      <c r="H102" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
       </c>
       <c r="I102" s="2">
         <v>44638.52993055555</v>
       </c>
       <c r="J102" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K102">
         <v>12</v>
@@ -5198,23 +4460,23 @@
       <c r="B103" t="s">
         <v>112</v>
       </c>
-      <c r="C103" t="s">
-        <v>394</v>
+      <c r="C103">
+        <v>4715168014160</v>
       </c>
       <c r="F103" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G103" t="s">
-        <v>560</v>
-      </c>
-      <c r="H103" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
       </c>
       <c r="I103" s="2">
         <v>44638.53003472222</v>
       </c>
       <c r="J103" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K103">
         <v>12</v>
@@ -5227,23 +4489,23 @@
       <c r="B104" t="s">
         <v>113</v>
       </c>
-      <c r="C104" t="s">
-        <v>395</v>
+      <c r="C104">
+        <v>4711271034538</v>
       </c>
       <c r="F104" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G104" t="s">
-        <v>560</v>
-      </c>
-      <c r="H104" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H104">
+        <v>12</v>
       </c>
       <c r="I104" s="2">
         <v>44638.53037037037</v>
       </c>
       <c r="J104" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K104">
         <v>12</v>
@@ -5256,23 +4518,23 @@
       <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C105" t="s">
-        <v>396</v>
+      <c r="C105">
+        <v>4716203032477</v>
       </c>
       <c r="F105" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G105" t="s">
-        <v>560</v>
-      </c>
-      <c r="H105" t="s">
-        <v>593</v>
+        <v>360</v>
+      </c>
+      <c r="H105">
+        <v>1200</v>
       </c>
       <c r="I105" s="2">
         <v>44638.53857638889</v>
       </c>
       <c r="J105" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K105">
         <v>12</v>
@@ -5286,22 +4548,22 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="F106" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G106" t="s">
-        <v>560</v>
-      </c>
-      <c r="H106" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
       </c>
       <c r="I106" s="2">
         <v>44638.54034722222</v>
       </c>
       <c r="J106" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K106">
         <v>12</v>
@@ -5315,22 +4577,22 @@
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>398</v>
+        <v>318</v>
       </c>
       <c r="F107" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G107" t="s">
-        <v>560</v>
-      </c>
-      <c r="H107" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
       </c>
       <c r="I107" s="2">
         <v>44638.54048611111</v>
       </c>
       <c r="J107" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K107">
         <v>12</v>
@@ -5344,22 +4606,22 @@
         <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="F108" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G108" t="s">
-        <v>560</v>
-      </c>
-      <c r="H108" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
       </c>
       <c r="I108" s="2">
         <v>44638.54059027778</v>
       </c>
       <c r="J108" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K108">
         <v>12</v>
@@ -5373,22 +4635,22 @@
         <v>118</v>
       </c>
       <c r="C109" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="F109" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G109" t="s">
-        <v>560</v>
-      </c>
-      <c r="H109" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
       </c>
       <c r="I109" s="2">
         <v>44638.54063657407</v>
       </c>
       <c r="J109" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K109">
         <v>12</v>
@@ -5402,22 +4664,22 @@
         <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="F110" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G110" t="s">
-        <v>560</v>
-      </c>
-      <c r="H110" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
       </c>
       <c r="I110" s="2">
         <v>44638.54069444445</v>
       </c>
       <c r="J110" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K110">
         <v>12</v>
@@ -5431,22 +4693,22 @@
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="F111" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G111" t="s">
-        <v>560</v>
-      </c>
-      <c r="H111" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
       </c>
       <c r="I111" s="2">
         <v>44638.54082175926</v>
       </c>
       <c r="J111" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K111">
         <v>12</v>
@@ -5460,22 +4722,22 @@
         <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="F112" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G112" t="s">
-        <v>560</v>
-      </c>
-      <c r="H112" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
       </c>
       <c r="I112" s="2">
         <v>44638.54100694445</v>
       </c>
       <c r="J112" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K112">
         <v>12</v>
@@ -5489,22 +4751,22 @@
         <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="F113" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G113" t="s">
-        <v>560</v>
-      </c>
-      <c r="H113" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
       </c>
       <c r="I113" s="2">
         <v>44638.54318287037</v>
       </c>
       <c r="J113" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K113">
         <v>13</v>
@@ -5518,22 +4780,22 @@
         <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="F114" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G114" t="s">
-        <v>560</v>
-      </c>
-      <c r="H114" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
       </c>
       <c r="I114" s="2">
         <v>44638.54332175926</v>
       </c>
       <c r="J114" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K114">
         <v>13</v>
@@ -5547,22 +4809,22 @@
         <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="F115" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G115" t="s">
-        <v>560</v>
-      </c>
-      <c r="H115" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
       </c>
       <c r="I115" s="2">
         <v>44638.54342592593</v>
       </c>
       <c r="J115" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K115">
         <v>13</v>
@@ -5576,22 +4838,22 @@
         <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="F116" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G116" t="s">
-        <v>560</v>
-      </c>
-      <c r="H116" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
       </c>
       <c r="I116" s="2">
         <v>44638.54362268518</v>
       </c>
       <c r="J116" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K116">
         <v>13</v>
@@ -5605,22 +4867,22 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>403</v>
+        <v>323</v>
       </c>
       <c r="F117" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G117" t="s">
-        <v>560</v>
-      </c>
-      <c r="H117" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
       </c>
       <c r="I117" s="2">
         <v>44638.54625</v>
       </c>
       <c r="J117" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K117">
         <v>13</v>
@@ -5634,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>403</v>
+        <v>323</v>
       </c>
       <c r="F118" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G118" t="s">
-        <v>560</v>
-      </c>
-      <c r="H118" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
       </c>
       <c r="I118" s="2">
         <v>44638.54638888889</v>
       </c>
       <c r="J118" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K118">
         <v>13</v>
@@ -5663,22 +4925,22 @@
         <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>404</v>
+        <v>324</v>
       </c>
       <c r="F119" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G119" t="s">
-        <v>560</v>
-      </c>
-      <c r="H119" t="s">
-        <v>594</v>
+        <v>360</v>
+      </c>
+      <c r="H119">
+        <v>288</v>
       </c>
       <c r="I119" s="2">
         <v>44638.54975694444</v>
       </c>
       <c r="J119" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K119">
         <v>13</v>
@@ -5692,22 +4954,22 @@
         <v>129</v>
       </c>
       <c r="C120" t="s">
-        <v>405</v>
+        <v>325</v>
       </c>
       <c r="F120" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G120" t="s">
-        <v>560</v>
-      </c>
-      <c r="H120" t="s">
-        <v>594</v>
+        <v>360</v>
+      </c>
+      <c r="H120">
+        <v>288</v>
       </c>
       <c r="I120" s="2">
         <v>44638.54777777778</v>
       </c>
       <c r="J120" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K120">
         <v>13</v>
@@ -5720,20 +4982,20 @@
       <c r="B121" t="s">
         <v>130</v>
       </c>
-      <c r="C121" t="s">
-        <v>406</v>
+      <c r="C121">
+        <v>4719883341457</v>
       </c>
       <c r="F121" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G121" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I121" s="2">
         <v>44638.54791666667</v>
       </c>
       <c r="J121" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K121">
         <v>13</v>
@@ -5746,20 +5008,20 @@
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122" t="s">
-        <v>407</v>
+      <c r="C122">
+        <v>4710155180262</v>
       </c>
       <c r="F122" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G122" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I122" s="2">
         <v>44638.54806712963</v>
       </c>
       <c r="J122" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K122">
         <v>13</v>
@@ -5772,20 +5034,20 @@
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123" t="s">
-        <v>408</v>
+      <c r="C123">
+        <v>4547691783776</v>
       </c>
       <c r="F123" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G123" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I123" s="2">
         <v>44638.54855324074</v>
       </c>
       <c r="J123" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K123">
         <v>13</v>
@@ -5798,20 +5060,20 @@
       <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C124" t="s">
-        <v>409</v>
+      <c r="C124">
+        <v>4547691702319</v>
       </c>
       <c r="F124" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G124" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I124" s="2">
         <v>44638.54855324074</v>
       </c>
       <c r="J124" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K124">
         <v>13</v>
@@ -5824,20 +5086,20 @@
       <c r="B125" t="s">
         <v>134</v>
       </c>
-      <c r="C125" t="s">
-        <v>410</v>
+      <c r="C125">
+        <v>4547691714411</v>
       </c>
       <c r="F125" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G125" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I125" s="2">
         <v>44638.54879629629</v>
       </c>
       <c r="J125" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K125">
         <v>13</v>
@@ -5850,20 +5112,20 @@
       <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C126" t="s">
-        <v>411</v>
+      <c r="C126">
+        <v>4547691703767</v>
       </c>
       <c r="F126" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G126" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I126" s="2">
         <v>44638.54890046296</v>
       </c>
       <c r="J126" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K126">
         <v>13</v>
@@ -5876,23 +5138,23 @@
       <c r="B127" t="s">
         <v>136</v>
       </c>
-      <c r="C127" t="s">
-        <v>412</v>
+      <c r="C127">
+        <v>4710562219227</v>
       </c>
       <c r="F127" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G127" t="s">
-        <v>560</v>
-      </c>
-      <c r="H127" t="s">
-        <v>569</v>
+        <v>360</v>
+      </c>
+      <c r="H127">
+        <v>180</v>
       </c>
       <c r="I127" s="2">
         <v>44638.56049768518</v>
       </c>
       <c r="J127" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K127">
         <v>13</v>
@@ -5905,23 +5167,23 @@
       <c r="B128" t="s">
         <v>137</v>
       </c>
-      <c r="C128" t="s">
-        <v>413</v>
+      <c r="C128">
+        <v>4716786423907</v>
       </c>
       <c r="F128" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G128" t="s">
-        <v>560</v>
-      </c>
-      <c r="H128" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H128">
+        <v>20</v>
       </c>
       <c r="I128" s="2">
         <v>44638.56116898148</v>
       </c>
       <c r="J128" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K128">
         <v>13</v>
@@ -5934,23 +5196,23 @@
       <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
-        <v>414</v>
+      <c r="C129">
+        <v>4716786426571</v>
       </c>
       <c r="F129" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G129" t="s">
-        <v>560</v>
-      </c>
-      <c r="H129" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
       </c>
       <c r="I129" s="2">
         <v>44638.56123842593</v>
       </c>
       <c r="J129" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K129">
         <v>13</v>
@@ -5963,23 +5225,23 @@
       <c r="B130" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
-        <v>415</v>
+      <c r="C130">
+        <v>4716786423969</v>
       </c>
       <c r="F130" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G130" t="s">
-        <v>560</v>
-      </c>
-      <c r="H130" t="s">
-        <v>592</v>
+        <v>360</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
       </c>
       <c r="I130" s="2">
         <v>44638.56128472222</v>
       </c>
       <c r="J130" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K130">
         <v>13</v>
@@ -5992,23 +5254,23 @@
       <c r="B131" t="s">
         <v>140</v>
       </c>
-      <c r="C131" t="s">
-        <v>416</v>
+      <c r="C131">
+        <v>4716786423785</v>
       </c>
       <c r="F131" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G131" t="s">
-        <v>560</v>
-      </c>
-      <c r="H131" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
       </c>
       <c r="I131" s="2">
         <v>44638.56134259259</v>
       </c>
       <c r="J131" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K131">
         <v>13</v>
@@ -6021,23 +5283,23 @@
       <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
-        <v>417</v>
+      <c r="C132">
+        <v>4716786424010</v>
       </c>
       <c r="F132" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G132" t="s">
-        <v>560</v>
-      </c>
-      <c r="H132" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
       </c>
       <c r="I132" s="2">
         <v>44638.56138888889</v>
       </c>
       <c r="J132" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K132">
         <v>13</v>
@@ -6050,23 +5312,23 @@
       <c r="B133" t="s">
         <v>142</v>
       </c>
-      <c r="C133" t="s">
-        <v>418</v>
+      <c r="C133">
+        <v>4717954350032</v>
       </c>
       <c r="F133" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G133" t="s">
-        <v>560</v>
-      </c>
-      <c r="H133" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H133">
+        <v>12</v>
       </c>
       <c r="I133" s="2">
         <v>44638.56152777778</v>
       </c>
       <c r="J133" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K133">
         <v>13</v>
@@ -6079,23 +5341,23 @@
       <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C134" t="s">
-        <v>419</v>
+      <c r="C134">
+        <v>4713667080235</v>
       </c>
       <c r="F134" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G134" t="s">
-        <v>560</v>
-      </c>
-      <c r="H134" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H134">
+        <v>6</v>
       </c>
       <c r="I134" s="2">
         <v>44638.56157407408</v>
       </c>
       <c r="J134" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K134">
         <v>13</v>
@@ -6108,23 +5370,23 @@
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
-        <v>420</v>
+      <c r="C135">
+        <v>4713667031282</v>
       </c>
       <c r="F135" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G135" t="s">
-        <v>560</v>
-      </c>
-      <c r="H135" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H135">
+        <v>6</v>
       </c>
       <c r="I135" s="2">
         <v>44638.56178240741</v>
       </c>
       <c r="J135" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K135">
         <v>13</v>
@@ -6137,23 +5399,23 @@
       <c r="B136" t="s">
         <v>145</v>
       </c>
-      <c r="C136" t="s">
-        <v>421</v>
+      <c r="C136">
+        <v>4713667030919</v>
       </c>
       <c r="F136" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G136" t="s">
-        <v>560</v>
-      </c>
-      <c r="H136" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H136">
+        <v>12</v>
       </c>
       <c r="I136" s="2">
         <v>44638.56239583333</v>
       </c>
       <c r="J136" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K136">
         <v>13</v>
@@ -6166,23 +5428,23 @@
       <c r="B137" t="s">
         <v>146</v>
       </c>
-      <c r="C137" t="s">
-        <v>422</v>
+      <c r="C137">
+        <v>53736482</v>
       </c>
       <c r="F137" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G137" t="s">
-        <v>560</v>
-      </c>
-      <c r="H137" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H137">
+        <v>12</v>
       </c>
       <c r="I137" s="2">
         <v>44638.56527777778</v>
       </c>
       <c r="J137" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K137">
         <v>13</v>
@@ -6195,23 +5457,23 @@
       <c r="B138" t="s">
         <v>147</v>
       </c>
-      <c r="C138" t="s">
-        <v>423</v>
+      <c r="C138">
+        <v>99887</v>
       </c>
       <c r="F138" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G138" t="s">
-        <v>560</v>
-      </c>
-      <c r="H138" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H138">
+        <v>50</v>
       </c>
       <c r="I138" s="2">
         <v>44638.56295138889</v>
       </c>
       <c r="J138" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K138">
         <v>13</v>
@@ -6224,23 +5486,23 @@
       <c r="B139" t="s">
         <v>148</v>
       </c>
-      <c r="C139" t="s">
-        <v>424</v>
+      <c r="C139">
+        <v>4710022033783</v>
       </c>
       <c r="F139" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G139" t="s">
-        <v>560</v>
-      </c>
-      <c r="H139" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H139">
+        <v>24</v>
       </c>
       <c r="I139" s="2">
         <v>44638.5652662037</v>
       </c>
       <c r="J139" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K139">
         <v>13</v>
@@ -6253,23 +5515,23 @@
       <c r="B140" t="s">
         <v>149</v>
       </c>
-      <c r="C140" t="s">
-        <v>425</v>
+      <c r="C140">
+        <v>4710022018124</v>
       </c>
       <c r="F140" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G140" t="s">
-        <v>560</v>
-      </c>
-      <c r="H140" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H140">
+        <v>12</v>
       </c>
       <c r="I140" s="2">
         <v>44638.60375</v>
       </c>
       <c r="J140" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K140">
         <v>14</v>
@@ -6282,23 +5544,23 @@
       <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="C141" t="s">
-        <v>426</v>
+      <c r="C141">
+        <v>4710022102793</v>
       </c>
       <c r="F141" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G141" t="s">
-        <v>560</v>
-      </c>
-      <c r="H141" t="s">
-        <v>566</v>
+        <v>360</v>
+      </c>
+      <c r="H141">
+        <v>30</v>
       </c>
       <c r="I141" s="2">
         <v>44638.60379629629</v>
       </c>
       <c r="J141" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K141">
         <v>14</v>
@@ -6311,23 +5573,23 @@
       <c r="B142" t="s">
         <v>151</v>
       </c>
-      <c r="C142" t="s">
-        <v>427</v>
+      <c r="C142">
+        <v>4710022029571</v>
       </c>
       <c r="F142" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G142" t="s">
-        <v>560</v>
-      </c>
-      <c r="H142" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H142">
+        <v>12</v>
       </c>
       <c r="I142" s="2">
         <v>44638.60476851852</v>
       </c>
       <c r="J142" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K142">
         <v>14</v>
@@ -6340,23 +5602,23 @@
       <c r="B143" t="s">
         <v>152</v>
       </c>
-      <c r="C143" t="s">
-        <v>428</v>
+      <c r="C143">
+        <v>4710022048206</v>
       </c>
       <c r="F143" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G143" t="s">
-        <v>560</v>
-      </c>
-      <c r="H143" t="s">
-        <v>563</v>
+        <v>360</v>
+      </c>
+      <c r="H143">
+        <v>40</v>
       </c>
       <c r="I143" s="2">
         <v>44638.57811342592</v>
       </c>
       <c r="J143" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K143">
         <v>13</v>
@@ -6369,23 +5631,23 @@
       <c r="B144" t="s">
         <v>153</v>
       </c>
-      <c r="C144" t="s">
-        <v>429</v>
+      <c r="C144">
+        <v>4710022034742</v>
       </c>
       <c r="F144" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G144" t="s">
-        <v>560</v>
-      </c>
-      <c r="H144" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H144">
+        <v>24</v>
       </c>
       <c r="I144" s="2">
         <v>44638.60487268519</v>
       </c>
       <c r="J144" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K144">
         <v>14</v>
@@ -6398,23 +5660,23 @@
       <c r="B145" t="s">
         <v>154</v>
       </c>
-      <c r="C145" t="s">
-        <v>430</v>
+      <c r="C145">
+        <v>4710022036265</v>
       </c>
       <c r="F145" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G145" t="s">
-        <v>560</v>
-      </c>
-      <c r="H145" t="s">
-        <v>570</v>
+        <v>360</v>
+      </c>
+      <c r="H145">
+        <v>120</v>
       </c>
       <c r="I145" s="2">
         <v>44638.605</v>
       </c>
       <c r="J145" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K145">
         <v>14</v>
@@ -6427,23 +5689,23 @@
       <c r="B146" t="s">
         <v>155</v>
       </c>
-      <c r="C146" t="s">
-        <v>431</v>
+      <c r="C146">
+        <v>4710022025085</v>
       </c>
       <c r="F146" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G146" t="s">
-        <v>560</v>
-      </c>
-      <c r="H146" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H146">
+        <v>12</v>
       </c>
       <c r="I146" s="2">
         <v>44638.60516203703</v>
       </c>
       <c r="J146" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K146">
         <v>14</v>
@@ -6456,23 +5718,23 @@
       <c r="B147" t="s">
         <v>156</v>
       </c>
-      <c r="C147" t="s">
-        <v>432</v>
+      <c r="C147">
+        <v>4710022047681</v>
       </c>
       <c r="F147" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G147" t="s">
-        <v>560</v>
-      </c>
-      <c r="H147" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H147">
+        <v>12</v>
       </c>
       <c r="I147" s="2">
         <v>44638.6052199074</v>
       </c>
       <c r="J147" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K147">
         <v>14</v>
@@ -6485,23 +5747,23 @@
       <c r="B148" t="s">
         <v>157</v>
       </c>
-      <c r="C148" t="s">
-        <v>433</v>
+      <c r="C148">
+        <v>4710022024972</v>
       </c>
       <c r="F148" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G148" t="s">
-        <v>560</v>
-      </c>
-      <c r="H148" t="s">
-        <v>595</v>
+        <v>360</v>
+      </c>
+      <c r="H148">
+        <v>360</v>
       </c>
       <c r="I148" s="2">
         <v>44638.60559027778</v>
       </c>
       <c r="J148" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K148">
         <v>14</v>
@@ -6514,23 +5776,23 @@
       <c r="B149" t="s">
         <v>158</v>
       </c>
-      <c r="C149" t="s">
-        <v>434</v>
+      <c r="C149">
+        <v>4710022035923</v>
       </c>
       <c r="F149" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G149" t="s">
-        <v>560</v>
-      </c>
-      <c r="H149" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H149">
+        <v>12</v>
       </c>
       <c r="I149" s="2">
         <v>44638.60671296297</v>
       </c>
       <c r="J149" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K149">
         <v>14</v>
@@ -6543,23 +5805,23 @@
       <c r="B150" t="s">
         <v>159</v>
       </c>
-      <c r="C150" t="s">
-        <v>435</v>
+      <c r="C150">
+        <v>4710022024538</v>
       </c>
       <c r="F150" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G150" t="s">
-        <v>560</v>
-      </c>
-      <c r="H150" t="s">
-        <v>566</v>
+        <v>360</v>
+      </c>
+      <c r="H150">
+        <v>30</v>
       </c>
       <c r="I150" s="2">
         <v>44638.60679398148</v>
       </c>
       <c r="J150" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K150">
         <v>14</v>
@@ -6572,23 +5834,23 @@
       <c r="B151" t="s">
         <v>160</v>
       </c>
-      <c r="C151" t="s">
-        <v>436</v>
+      <c r="C151">
+        <v>4710022010401</v>
       </c>
       <c r="F151" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G151" t="s">
-        <v>560</v>
-      </c>
-      <c r="H151" t="s">
-        <v>585</v>
+        <v>360</v>
+      </c>
+      <c r="H151">
+        <v>60</v>
       </c>
       <c r="I151" s="2">
         <v>44638.60694444444</v>
       </c>
       <c r="J151" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K151">
         <v>14</v>
@@ -6601,23 +5863,23 @@
       <c r="B152" t="s">
         <v>161</v>
       </c>
-      <c r="C152" t="s">
-        <v>437</v>
+      <c r="C152">
+        <v>4710022028673</v>
       </c>
       <c r="F152" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G152" t="s">
-        <v>560</v>
-      </c>
-      <c r="H152" t="s">
-        <v>596</v>
+        <v>360</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
       </c>
       <c r="I152" s="2">
         <v>44638.60768518518</v>
       </c>
       <c r="J152" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K152">
         <v>14</v>
@@ -6630,23 +5892,23 @@
       <c r="B153" t="s">
         <v>162</v>
       </c>
-      <c r="C153" t="s">
-        <v>438</v>
+      <c r="C153">
+        <v>4710022020615</v>
       </c>
       <c r="F153" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G153" t="s">
-        <v>560</v>
-      </c>
-      <c r="H153" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H153">
+        <v>12</v>
       </c>
       <c r="I153" s="2">
         <v>44638.60791666667</v>
       </c>
       <c r="J153" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K153">
         <v>14</v>
@@ -6660,22 +5922,22 @@
         <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>439</v>
+        <v>326</v>
       </c>
       <c r="F154" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G154" t="s">
-        <v>560</v>
-      </c>
-      <c r="H154" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
       </c>
       <c r="I154" s="2">
         <v>44638.50337962963</v>
       </c>
       <c r="J154" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K154">
         <v>12</v>
@@ -6689,22 +5951,22 @@
         <v>164</v>
       </c>
       <c r="C155" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
       <c r="F155" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G155" t="s">
-        <v>560</v>
-      </c>
-      <c r="H155" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
       </c>
       <c r="I155" s="2">
         <v>44638.50373842593</v>
       </c>
       <c r="J155" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K155">
         <v>12</v>
@@ -6718,22 +5980,22 @@
         <v>165</v>
       </c>
       <c r="C156" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
       <c r="F156" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G156" t="s">
-        <v>560</v>
-      </c>
-      <c r="H156" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
       </c>
       <c r="I156" s="2">
         <v>44638.50388888889</v>
       </c>
       <c r="J156" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K156">
         <v>12</v>
@@ -6747,22 +6009,22 @@
         <v>166</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="F157" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G157" t="s">
-        <v>560</v>
-      </c>
-      <c r="H157" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H157">
+        <v>3</v>
       </c>
       <c r="I157" s="2">
         <v>44638.50391203703</v>
       </c>
       <c r="J157" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K157">
         <v>12</v>
@@ -6776,22 +6038,22 @@
         <v>167</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="F158" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G158" t="s">
-        <v>560</v>
-      </c>
-      <c r="H158" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H158">
+        <v>3</v>
       </c>
       <c r="I158" s="2">
         <v>44638.50391203703</v>
       </c>
       <c r="J158" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K158">
         <v>12</v>
@@ -6805,22 +6067,22 @@
         <v>168</v>
       </c>
       <c r="C159" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="F159" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G159" t="s">
-        <v>560</v>
-      </c>
-      <c r="H159" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
       </c>
       <c r="I159" s="2">
         <v>44638.50417824074</v>
       </c>
       <c r="J159" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K159">
         <v>12</v>
@@ -6834,22 +6096,22 @@
         <v>169</v>
       </c>
       <c r="C160" t="s">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="F160" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G160" t="s">
-        <v>560</v>
-      </c>
-      <c r="H160" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H160">
+        <v>3</v>
       </c>
       <c r="I160" s="2">
         <v>44638.50417824074</v>
       </c>
       <c r="J160" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K160">
         <v>12</v>
@@ -6863,22 +6125,22 @@
         <v>170</v>
       </c>
       <c r="C161" t="s">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="F161" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G161" t="s">
-        <v>560</v>
-      </c>
-      <c r="H161" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
       </c>
       <c r="I161" s="2">
         <v>44638.50418981481</v>
       </c>
       <c r="J161" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K161">
         <v>12</v>
@@ -6892,22 +6154,22 @@
         <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="F162" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G162" t="s">
-        <v>560</v>
-      </c>
-      <c r="H162" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H162">
+        <v>3</v>
       </c>
       <c r="I162" s="2">
         <v>44638.50418981481</v>
       </c>
       <c r="J162" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K162">
         <v>12</v>
@@ -6921,22 +6183,22 @@
         <v>172</v>
       </c>
       <c r="C163" t="s">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="F163" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G163" t="s">
-        <v>560</v>
-      </c>
-      <c r="H163" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
       </c>
       <c r="I163" s="2">
         <v>44638.50489583334</v>
       </c>
       <c r="J163" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K163">
         <v>12</v>
@@ -6950,22 +6212,22 @@
         <v>173</v>
       </c>
       <c r="C164" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="F164" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G164" t="s">
-        <v>560</v>
-      </c>
-      <c r="H164" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H164">
+        <v>3</v>
       </c>
       <c r="I164" s="2">
         <v>44638.50601851852</v>
       </c>
       <c r="J164" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K164">
         <v>12</v>
@@ -6979,25 +6241,25 @@
         <v>174</v>
       </c>
       <c r="C165" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
       <c r="D165" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F165" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G165" t="s">
-        <v>560</v>
-      </c>
-      <c r="H165" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
       </c>
       <c r="I165" s="2">
         <v>44638.50604166667</v>
       </c>
       <c r="J165" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K165">
         <v>12</v>
@@ -7011,22 +6273,22 @@
         <v>175</v>
       </c>
       <c r="C166" t="s">
-        <v>447</v>
+        <v>334</v>
       </c>
       <c r="F166" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G166" t="s">
-        <v>560</v>
-      </c>
-      <c r="H166" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
       </c>
       <c r="I166" s="2">
         <v>44638.50606481481</v>
       </c>
       <c r="J166" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K166">
         <v>12</v>
@@ -7040,25 +6302,25 @@
         <v>176</v>
       </c>
       <c r="C167" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
       <c r="D167" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F167" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G167" t="s">
-        <v>560</v>
-      </c>
-      <c r="H167" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H167">
+        <v>3</v>
       </c>
       <c r="I167" s="2">
         <v>44638.50606481481</v>
       </c>
       <c r="J167" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K167">
         <v>12</v>
@@ -7072,25 +6334,25 @@
         <v>177</v>
       </c>
       <c r="C168" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="D168" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F168" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G168" t="s">
-        <v>560</v>
-      </c>
-      <c r="H168" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H168">
+        <v>20</v>
       </c>
       <c r="I168" s="2">
         <v>44638.50703703704</v>
       </c>
       <c r="J168" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K168">
         <v>12</v>
@@ -7103,26 +6365,26 @@
       <c r="B169" t="s">
         <v>178</v>
       </c>
-      <c r="C169" t="s">
-        <v>449</v>
+      <c r="C169">
+        <v>619659181666</v>
       </c>
       <c r="D169" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F169" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G169" t="s">
-        <v>560</v>
-      </c>
-      <c r="H169" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H169">
+        <v>12</v>
       </c>
       <c r="I169" s="2">
         <v>44638.51171296297</v>
       </c>
       <c r="J169" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K169">
         <v>12</v>
@@ -7135,26 +6397,26 @@
       <c r="B170" t="s">
         <v>179</v>
       </c>
-      <c r="C170" t="s">
-        <v>450</v>
+      <c r="C170">
+        <v>619659185077</v>
       </c>
       <c r="D170" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F170" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G170" t="s">
-        <v>560</v>
-      </c>
-      <c r="H170" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
       </c>
       <c r="I170" s="2">
         <v>44638.51188657407</v>
       </c>
       <c r="J170" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K170">
         <v>12</v>
@@ -7167,26 +6429,26 @@
       <c r="B171" t="s">
         <v>180</v>
       </c>
-      <c r="C171" t="s">
-        <v>451</v>
+      <c r="C171">
+        <v>4712927154068</v>
       </c>
       <c r="D171" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F171" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G171" t="s">
-        <v>560</v>
-      </c>
-      <c r="H171" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
       </c>
       <c r="I171" s="2">
         <v>44638.51239583334</v>
       </c>
       <c r="J171" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K171">
         <v>12</v>
@@ -7199,23 +6461,23 @@
       <c r="B172" t="s">
         <v>181</v>
       </c>
-      <c r="C172" t="s">
-        <v>452</v>
+      <c r="C172">
+        <v>4712927152897</v>
       </c>
       <c r="D172" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F172" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G172" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I172" s="2">
         <v>44638.51392361111</v>
       </c>
       <c r="J172" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K172">
         <v>12</v>
@@ -7228,26 +6490,26 @@
       <c r="B173" t="s">
         <v>182</v>
       </c>
-      <c r="C173" t="s">
-        <v>453</v>
+      <c r="C173">
+        <v>4712927153573</v>
       </c>
       <c r="D173" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F173" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G173" t="s">
-        <v>560</v>
-      </c>
-      <c r="H173" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H173">
+        <v>3</v>
       </c>
       <c r="I173" s="2">
         <v>44638.51428240741</v>
       </c>
       <c r="J173" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K173">
         <v>12</v>
@@ -7260,23 +6522,23 @@
       <c r="B174" t="s">
         <v>183</v>
       </c>
-      <c r="C174" t="s">
-        <v>454</v>
+      <c r="C174">
+        <v>4712927153498</v>
       </c>
       <c r="D174" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F174" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G174" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I174" s="2">
         <v>44638.51439814815</v>
       </c>
       <c r="J174" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K174">
         <v>12</v>
@@ -7289,23 +6551,23 @@
       <c r="B175" t="s">
         <v>184</v>
       </c>
-      <c r="C175" t="s">
-        <v>455</v>
+      <c r="C175">
+        <v>4713008110010</v>
       </c>
       <c r="D175" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F175" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G175" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I175" s="2">
         <v>44638.51465277778</v>
       </c>
       <c r="J175" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K175">
         <v>12</v>
@@ -7318,23 +6580,23 @@
       <c r="B176" t="s">
         <v>185</v>
       </c>
-      <c r="C176" t="s">
-        <v>456</v>
+      <c r="C176">
+        <v>4712927153740</v>
       </c>
       <c r="D176" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F176" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G176" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I176" s="2">
         <v>44638.51693287037</v>
       </c>
       <c r="J176" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K176">
         <v>12</v>
@@ -7347,23 +6609,23 @@
       <c r="B177" t="s">
         <v>186</v>
       </c>
-      <c r="C177" t="s">
-        <v>457</v>
+      <c r="C177">
+        <v>4712927153733</v>
       </c>
       <c r="F177" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G177" t="s">
-        <v>560</v>
-      </c>
-      <c r="H177" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
       </c>
       <c r="I177" s="2">
         <v>44638.51439814815</v>
       </c>
       <c r="J177" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K177">
         <v>12</v>
@@ -7376,23 +6638,23 @@
       <c r="B178" t="s">
         <v>187</v>
       </c>
-      <c r="C178" t="s">
-        <v>458</v>
+      <c r="C178">
+        <v>4712927153535</v>
       </c>
       <c r="F178" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G178" t="s">
-        <v>560</v>
-      </c>
-      <c r="H178" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
       </c>
       <c r="I178" s="2">
         <v>44638.51465277778</v>
       </c>
       <c r="J178" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K178">
         <v>12</v>
@@ -7405,26 +6667,26 @@
       <c r="B179" t="s">
         <v>188</v>
       </c>
-      <c r="C179" t="s">
-        <v>459</v>
+      <c r="C179">
+        <v>4715013004780</v>
       </c>
       <c r="D179" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="F179" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G179" t="s">
-        <v>560</v>
-      </c>
-      <c r="H179" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
       </c>
       <c r="I179" s="2">
         <v>44638.51693287037</v>
       </c>
       <c r="J179" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K179">
         <v>12</v>
@@ -7437,26 +6699,26 @@
       <c r="B180" t="s">
         <v>189</v>
       </c>
-      <c r="C180" t="s">
-        <v>460</v>
+      <c r="C180">
+        <v>4715013004797</v>
       </c>
       <c r="D180" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="F180" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G180" t="s">
-        <v>560</v>
-      </c>
-      <c r="H180" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H180">
+        <v>3</v>
       </c>
       <c r="I180" s="2">
         <v>44638.51783564815</v>
       </c>
       <c r="J180" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K180">
         <v>12</v>
@@ -7469,23 +6731,23 @@
       <c r="B181" t="s">
         <v>190</v>
       </c>
-      <c r="C181" t="s">
-        <v>461</v>
+      <c r="C181">
+        <v>4712927153610</v>
       </c>
       <c r="F181" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G181" t="s">
-        <v>560</v>
-      </c>
-      <c r="H181" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H181">
+        <v>50</v>
       </c>
       <c r="I181" s="2">
         <v>44638.51868055556</v>
       </c>
       <c r="J181" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K181">
         <v>12</v>
@@ -7499,22 +6761,22 @@
         <v>191</v>
       </c>
       <c r="C182" t="s">
-        <v>462</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G182" t="s">
-        <v>560</v>
-      </c>
-      <c r="H182" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H182">
+        <v>50</v>
       </c>
       <c r="I182" s="2">
         <v>44638.52350694445</v>
       </c>
       <c r="J182" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K182">
         <v>12</v>
@@ -7528,22 +6790,22 @@
         <v>192</v>
       </c>
       <c r="C183" t="s">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G183" t="s">
-        <v>560</v>
-      </c>
-      <c r="H183" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H183">
+        <v>50</v>
       </c>
       <c r="I183" s="2">
         <v>44638.52354166667</v>
       </c>
       <c r="J183" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K183">
         <v>12</v>
@@ -7557,22 +6819,22 @@
         <v>193</v>
       </c>
       <c r="C184" t="s">
-        <v>464</v>
+        <v>338</v>
       </c>
       <c r="F184" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G184" t="s">
-        <v>560</v>
-      </c>
-      <c r="H184" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H184">
+        <v>20</v>
       </c>
       <c r="I184" s="2">
         <v>44638.52371527778</v>
       </c>
       <c r="J184" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K184">
         <v>12</v>
@@ -7586,22 +6848,22 @@
         <v>194</v>
       </c>
       <c r="C185" t="s">
-        <v>465</v>
+        <v>339</v>
       </c>
       <c r="F185" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G185" t="s">
-        <v>560</v>
-      </c>
-      <c r="H185" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H185">
+        <v>50</v>
       </c>
       <c r="I185" s="2">
         <v>44638.52375</v>
       </c>
       <c r="J185" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K185">
         <v>12</v>
@@ -7615,22 +6877,22 @@
         <v>195</v>
       </c>
       <c r="C186" t="s">
-        <v>466</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G186" t="s">
-        <v>560</v>
-      </c>
-      <c r="H186" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H186">
+        <v>50</v>
       </c>
       <c r="I186" s="2">
         <v>44638.52422453704</v>
       </c>
       <c r="J186" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K186">
         <v>12</v>
@@ -7643,23 +6905,23 @@
       <c r="B187" t="s">
         <v>196</v>
       </c>
-      <c r="C187" t="s">
-        <v>467</v>
+      <c r="C187">
+        <v>740617298680</v>
       </c>
       <c r="F187" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G187" t="s">
-        <v>560</v>
-      </c>
-      <c r="H187" t="s">
-        <v>561</v>
+        <v>360</v>
+      </c>
+      <c r="H187">
+        <v>20</v>
       </c>
       <c r="I187" s="2">
         <v>44638.52673611111</v>
       </c>
       <c r="J187" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K187">
         <v>12</v>
@@ -7672,23 +6934,23 @@
       <c r="B188" t="s">
         <v>197</v>
       </c>
-      <c r="C188" t="s">
-        <v>468</v>
+      <c r="C188">
+        <v>760557824893</v>
       </c>
       <c r="F188" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G188" t="s">
-        <v>560</v>
-      </c>
-      <c r="H188" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H188">
+        <v>3</v>
       </c>
       <c r="I188" s="2">
         <v>44638.52680555556</v>
       </c>
       <c r="J188" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K188">
         <v>12</v>
@@ -7701,23 +6963,23 @@
       <c r="B189" t="s">
         <v>198</v>
       </c>
-      <c r="C189" t="s">
-        <v>469</v>
+      <c r="C189">
+        <v>4712389914323</v>
       </c>
       <c r="F189" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G189" t="s">
-        <v>560</v>
-      </c>
-      <c r="H189" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H189">
+        <v>3</v>
       </c>
       <c r="I189" s="2">
         <v>44638.526875</v>
       </c>
       <c r="J189" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K189">
         <v>12</v>
@@ -7730,23 +6992,23 @@
       <c r="B190" t="s">
         <v>199</v>
       </c>
-      <c r="C190" t="s">
-        <v>470</v>
+      <c r="C190">
+        <v>740617243079</v>
       </c>
       <c r="F190" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G190" t="s">
-        <v>560</v>
-      </c>
-      <c r="H190" t="s">
-        <v>582</v>
+        <v>360</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
       </c>
       <c r="I190" s="2">
         <v>44638.52704861111</v>
       </c>
       <c r="J190" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K190">
         <v>12</v>
@@ -7759,23 +7021,23 @@
       <c r="B191" t="s">
         <v>200</v>
       </c>
-      <c r="C191" t="s">
-        <v>471</v>
+      <c r="C191">
+        <v>619659181710</v>
       </c>
       <c r="F191" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G191" t="s">
-        <v>560</v>
-      </c>
-      <c r="H191" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
       </c>
       <c r="I191" s="2">
         <v>44638.5270949074</v>
       </c>
       <c r="J191" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K191">
         <v>12</v>
@@ -7788,23 +7050,23 @@
       <c r="B192" t="s">
         <v>201</v>
       </c>
-      <c r="C192" t="s">
-        <v>472</v>
+      <c r="C192">
+        <v>740617242874</v>
       </c>
       <c r="F192" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G192" t="s">
-        <v>560</v>
-      </c>
-      <c r="H192" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
       </c>
       <c r="I192" s="2">
         <v>44638.52722222222</v>
       </c>
       <c r="J192" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K192">
         <v>12</v>
@@ -7817,23 +7079,23 @@
       <c r="B193" t="s">
         <v>202</v>
       </c>
-      <c r="C193" t="s">
-        <v>473</v>
+      <c r="C193">
+        <v>740617301397</v>
       </c>
       <c r="F193" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G193" t="s">
-        <v>560</v>
-      </c>
-      <c r="H193" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
       </c>
       <c r="I193" s="2">
         <v>44638.5274537037</v>
       </c>
       <c r="J193" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K193">
         <v>12</v>
@@ -7846,23 +7108,23 @@
       <c r="B194" t="s">
         <v>203</v>
       </c>
-      <c r="C194" t="s">
-        <v>474</v>
+      <c r="C194">
+        <v>740617301793</v>
       </c>
       <c r="F194" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G194" t="s">
-        <v>560</v>
-      </c>
-      <c r="H194" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
       </c>
       <c r="I194" s="2">
         <v>44638.5275925926</v>
       </c>
       <c r="J194" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K194">
         <v>12</v>
@@ -7875,23 +7137,23 @@
       <c r="B195" t="s">
         <v>204</v>
       </c>
-      <c r="C195" t="s">
-        <v>475</v>
+      <c r="C195">
+        <v>4713218461940</v>
       </c>
       <c r="F195" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G195" t="s">
-        <v>560</v>
-      </c>
-      <c r="H195" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
       </c>
       <c r="I195" s="2">
         <v>44638.52765046297</v>
       </c>
       <c r="J195" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K195">
         <v>12</v>
@@ -7905,22 +7167,22 @@
         <v>205</v>
       </c>
       <c r="C196" t="s">
-        <v>476</v>
+        <v>341</v>
       </c>
       <c r="F196" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G196" t="s">
-        <v>560</v>
-      </c>
-      <c r="H196" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
       </c>
       <c r="I196" s="2">
         <v>44638.53275462963</v>
       </c>
       <c r="J196" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K196">
         <v>12</v>
@@ -7934,22 +7196,22 @@
         <v>206</v>
       </c>
       <c r="C197" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="F197" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G197" t="s">
-        <v>560</v>
-      </c>
-      <c r="H197" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H197">
+        <v>3</v>
       </c>
       <c r="I197" s="2">
         <v>44638.53350694444</v>
       </c>
       <c r="J197" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K197">
         <v>12</v>
@@ -7963,22 +7225,22 @@
         <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>477</v>
+        <v>342</v>
       </c>
       <c r="F198" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G198" t="s">
-        <v>560</v>
-      </c>
-      <c r="H198" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H198">
+        <v>3</v>
       </c>
       <c r="I198" s="2">
         <v>44638.53371527778</v>
       </c>
       <c r="J198" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K198">
         <v>12</v>
@@ -7992,22 +7254,22 @@
         <v>208</v>
       </c>
       <c r="C199" t="s">
-        <v>403</v>
+        <v>323</v>
       </c>
       <c r="F199" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G199" t="s">
-        <v>560</v>
-      </c>
-      <c r="H199" t="s">
-        <v>582</v>
+        <v>360</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
       </c>
       <c r="I199" s="2">
         <v>44638.53393518519</v>
       </c>
       <c r="J199" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K199">
         <v>12</v>
@@ -8021,22 +7283,22 @@
         <v>209</v>
       </c>
       <c r="C200" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="F200" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G200" t="s">
-        <v>560</v>
-      </c>
-      <c r="H200" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
       </c>
       <c r="I200" s="2">
         <v>44638.53408564815</v>
       </c>
       <c r="J200" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K200">
         <v>12</v>
@@ -8050,22 +7312,22 @@
         <v>210</v>
       </c>
       <c r="C201" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
       <c r="F201" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G201" t="s">
-        <v>560</v>
-      </c>
-      <c r="H201" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
       </c>
       <c r="I201" s="2">
         <v>44638.5344212963</v>
       </c>
       <c r="J201" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K201">
         <v>12</v>
@@ -8079,25 +7341,25 @@
         <v>211</v>
       </c>
       <c r="C202" t="s">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="D202" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="F202" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G202" t="s">
-        <v>560</v>
-      </c>
-      <c r="H202" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H202">
+        <v>3</v>
       </c>
       <c r="I202" s="2">
         <v>44638.5349537037</v>
       </c>
       <c r="J202" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K202">
         <v>12</v>
@@ -8111,22 +7373,22 @@
         <v>212</v>
       </c>
       <c r="C203" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="F203" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G203" t="s">
-        <v>560</v>
-      </c>
-      <c r="H203" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
       </c>
       <c r="I203" s="2">
         <v>44638.53565972222</v>
       </c>
       <c r="J203" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K203">
         <v>12</v>
@@ -8140,22 +7402,22 @@
         <v>213</v>
       </c>
       <c r="C204" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="F204" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G204" t="s">
-        <v>560</v>
-      </c>
-      <c r="H204" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
       </c>
       <c r="I204" s="2">
         <v>44638.53575231481</v>
       </c>
       <c r="J204" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K204">
         <v>12</v>
@@ -8169,22 +7431,22 @@
         <v>214</v>
       </c>
       <c r="C205" t="s">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="F205" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G205" t="s">
-        <v>560</v>
-      </c>
-      <c r="H205" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
       </c>
       <c r="I205" s="2">
         <v>44638.53587962963</v>
       </c>
       <c r="J205" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K205">
         <v>12</v>
@@ -8198,22 +7460,22 @@
         <v>215</v>
       </c>
       <c r="C206" t="s">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="F206" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G206" t="s">
-        <v>560</v>
-      </c>
-      <c r="H206" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
       </c>
       <c r="I206" s="2">
         <v>44638.53596064815</v>
       </c>
       <c r="J206" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K206">
         <v>12</v>
@@ -8226,23 +7488,23 @@
       <c r="B207" t="s">
         <v>216</v>
       </c>
-      <c r="C207" t="s">
-        <v>482</v>
+      <c r="C207">
+        <v>4710022024842</v>
       </c>
       <c r="F207" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G207" t="s">
-        <v>560</v>
-      </c>
-      <c r="H207" t="s">
-        <v>597</v>
+        <v>360</v>
+      </c>
+      <c r="H207">
+        <v>600</v>
       </c>
       <c r="I207" s="2">
         <v>44638.60956018518</v>
       </c>
       <c r="J207" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K207">
         <v>14</v>
@@ -8255,23 +7517,23 @@
       <c r="B208" t="s">
         <v>217</v>
       </c>
-      <c r="C208" t="s">
-        <v>483</v>
+      <c r="C208">
+        <v>4710022035459</v>
       </c>
       <c r="F208" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G208" t="s">
-        <v>560</v>
-      </c>
-      <c r="H208" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H208">
+        <v>12</v>
       </c>
       <c r="I208" s="2">
         <v>44638.61369212963</v>
       </c>
       <c r="J208" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K208">
         <v>14</v>
@@ -8284,23 +7546,23 @@
       <c r="B209" t="s">
         <v>218</v>
       </c>
-      <c r="C209" t="s">
-        <v>484</v>
+      <c r="C209">
+        <v>4710022027423</v>
       </c>
       <c r="F209" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G209" t="s">
-        <v>560</v>
-      </c>
-      <c r="H209" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H209">
+        <v>24</v>
       </c>
       <c r="I209" s="2">
         <v>44638.61375</v>
       </c>
       <c r="J209" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K209">
         <v>14</v>
@@ -8313,23 +7575,23 @@
       <c r="B210" t="s">
         <v>219</v>
       </c>
-      <c r="C210" t="s">
-        <v>485</v>
+      <c r="C210">
+        <v>4710022002666</v>
       </c>
       <c r="F210" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G210" t="s">
-        <v>560</v>
-      </c>
-      <c r="H210" t="s">
-        <v>585</v>
+        <v>360</v>
+      </c>
+      <c r="H210">
+        <v>60</v>
       </c>
       <c r="I210" s="2">
         <v>44638.6139699074</v>
       </c>
       <c r="J210" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K210">
         <v>14</v>
@@ -8342,23 +7604,23 @@
       <c r="B211" t="s">
         <v>220</v>
       </c>
-      <c r="C211" t="s">
-        <v>486</v>
+      <c r="C211">
+        <v>4710022031826</v>
       </c>
       <c r="F211" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G211" t="s">
-        <v>560</v>
-      </c>
-      <c r="H211" t="s">
-        <v>567</v>
+        <v>360</v>
+      </c>
+      <c r="H211">
+        <v>100</v>
       </c>
       <c r="I211" s="2">
         <v>44638.61420138889</v>
       </c>
       <c r="J211" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K211">
         <v>14</v>
@@ -8371,23 +7633,23 @@
       <c r="B212" t="s">
         <v>221</v>
       </c>
-      <c r="C212" t="s">
-        <v>487</v>
+      <c r="C212">
+        <v>4710022029229</v>
       </c>
       <c r="F212" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G212" t="s">
-        <v>560</v>
-      </c>
-      <c r="H212" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H212">
+        <v>12</v>
       </c>
       <c r="I212" s="2">
         <v>44638.6153587963</v>
       </c>
       <c r="J212" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K212">
         <v>14</v>
@@ -8400,23 +7662,23 @@
       <c r="B213" t="s">
         <v>222</v>
       </c>
-      <c r="C213" t="s">
-        <v>488</v>
+      <c r="C213">
+        <v>4710022042525</v>
       </c>
       <c r="F213" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G213" t="s">
-        <v>560</v>
-      </c>
-      <c r="H213" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H213">
+        <v>12</v>
       </c>
       <c r="I213" s="2">
         <v>44638.61552083334</v>
       </c>
       <c r="J213" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K213">
         <v>14</v>
@@ -8429,23 +7691,23 @@
       <c r="B214" t="s">
         <v>223</v>
       </c>
-      <c r="C214" t="s">
-        <v>489</v>
+      <c r="C214">
+        <v>4710022034100</v>
       </c>
       <c r="F214" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G214" t="s">
-        <v>560</v>
-      </c>
-      <c r="H214" t="s">
-        <v>598</v>
+        <v>360</v>
+      </c>
+      <c r="H214">
+        <v>90</v>
       </c>
       <c r="I214" s="2">
         <v>44638.61896990741</v>
       </c>
       <c r="J214" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K214">
         <v>14</v>
@@ -8458,23 +7720,23 @@
       <c r="B215" t="s">
         <v>224</v>
       </c>
-      <c r="C215" t="s">
-        <v>490</v>
+      <c r="C215">
+        <v>4710022028031</v>
       </c>
       <c r="F215" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G215" t="s">
-        <v>560</v>
-      </c>
-      <c r="H215" t="s">
-        <v>570</v>
+        <v>360</v>
+      </c>
+      <c r="H215">
+        <v>120</v>
       </c>
       <c r="I215" s="2">
         <v>44638.61913194445</v>
       </c>
       <c r="J215" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K215">
         <v>14</v>
@@ -8487,23 +7749,23 @@
       <c r="B216" t="s">
         <v>225</v>
       </c>
-      <c r="C216" t="s">
-        <v>491</v>
+      <c r="C216">
+        <v>4710022024262</v>
       </c>
       <c r="F216" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G216" t="s">
-        <v>560</v>
-      </c>
-      <c r="H216" t="s">
-        <v>585</v>
+        <v>360</v>
+      </c>
+      <c r="H216">
+        <v>60</v>
       </c>
       <c r="I216" s="2">
         <v>44638.61945601852</v>
       </c>
       <c r="J216" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K216">
         <v>14</v>
@@ -8516,23 +7778,23 @@
       <c r="B217" t="s">
         <v>226</v>
       </c>
-      <c r="C217" t="s">
-        <v>492</v>
+      <c r="C217">
+        <v>4710022030225</v>
       </c>
       <c r="F217" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G217" t="s">
-        <v>560</v>
-      </c>
-      <c r="H217" t="s">
-        <v>585</v>
+        <v>360</v>
+      </c>
+      <c r="H217">
+        <v>60</v>
       </c>
       <c r="I217" s="2">
         <v>44638.61987268519</v>
       </c>
       <c r="J217" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K217">
         <v>14</v>
@@ -8545,23 +7807,23 @@
       <c r="B218" t="s">
         <v>227</v>
       </c>
-      <c r="C218" t="s">
-        <v>493</v>
+      <c r="C218">
+        <v>3605975038132</v>
       </c>
       <c r="F218" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G218" t="s">
-        <v>560</v>
-      </c>
-      <c r="H218" t="s">
-        <v>599</v>
+        <v>360</v>
+      </c>
+      <c r="H218">
+        <v>308</v>
       </c>
       <c r="I218" s="2">
         <v>44638.45710648148</v>
       </c>
       <c r="J218" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K218">
         <v>10</v>
@@ -8574,23 +7836,23 @@
       <c r="B219" t="s">
         <v>228</v>
       </c>
-      <c r="C219" t="s">
-        <v>493</v>
+      <c r="C219">
+        <v>3605975038132</v>
       </c>
       <c r="F219" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G219" t="s">
-        <v>560</v>
-      </c>
-      <c r="H219" t="s">
-        <v>600</v>
+        <v>360</v>
+      </c>
+      <c r="H219">
+        <v>292</v>
       </c>
       <c r="I219" s="2">
         <v>44638.45715277778</v>
       </c>
       <c r="J219" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K219">
         <v>10</v>
@@ -8603,23 +7865,23 @@
       <c r="B220" t="s">
         <v>229</v>
       </c>
-      <c r="C220" t="s">
-        <v>494</v>
+      <c r="C220">
+        <v>736150000316</v>
       </c>
       <c r="F220" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G220" t="s">
-        <v>560</v>
-      </c>
-      <c r="H220" t="s">
-        <v>601</v>
+        <v>360</v>
+      </c>
+      <c r="H220">
+        <v>336</v>
       </c>
       <c r="I220" s="2">
         <v>44638.45769675926</v>
       </c>
       <c r="J220" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K220">
         <v>10</v>
@@ -8632,23 +7894,23 @@
       <c r="B221" t="s">
         <v>230</v>
       </c>
-      <c r="C221" t="s">
-        <v>495</v>
+      <c r="C221">
+        <v>3605970236915</v>
       </c>
       <c r="F221" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G221" t="s">
-        <v>560</v>
-      </c>
-      <c r="H221" t="s">
-        <v>584</v>
+        <v>360</v>
+      </c>
+      <c r="H221">
+        <v>200</v>
       </c>
       <c r="I221" s="2">
         <v>44638.45796296297</v>
       </c>
       <c r="J221" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K221">
         <v>10</v>
@@ -8661,23 +7923,23 @@
       <c r="B222" t="s">
         <v>231</v>
       </c>
-      <c r="C222" t="s">
-        <v>496</v>
+      <c r="C222">
+        <v>3605975028836</v>
       </c>
       <c r="F222" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G222" t="s">
-        <v>560</v>
-      </c>
-      <c r="H222" t="s">
-        <v>577</v>
+        <v>360</v>
+      </c>
+      <c r="H222">
+        <v>48</v>
       </c>
       <c r="I222" s="2">
         <v>44638.45818287037</v>
       </c>
       <c r="J222" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K222">
         <v>10</v>
@@ -8690,23 +7952,23 @@
       <c r="B223" t="s">
         <v>232</v>
       </c>
-      <c r="C223" t="s">
-        <v>497</v>
+      <c r="C223">
+        <v>3614272623507</v>
       </c>
       <c r="F223" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G223" t="s">
-        <v>560</v>
-      </c>
-      <c r="H223" t="s">
-        <v>567</v>
+        <v>360</v>
+      </c>
+      <c r="H223">
+        <v>100</v>
       </c>
       <c r="I223" s="2">
         <v>44638.45839120371</v>
       </c>
       <c r="J223" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K223">
         <v>11</v>
@@ -8719,23 +7981,23 @@
       <c r="B224" t="s">
         <v>233</v>
       </c>
-      <c r="C224" t="s">
-        <v>497</v>
+      <c r="C224">
+        <v>3614272623507</v>
       </c>
       <c r="F224" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G224" t="s">
-        <v>560</v>
-      </c>
-      <c r="H224" t="s">
-        <v>584</v>
+        <v>360</v>
+      </c>
+      <c r="H224">
+        <v>200</v>
       </c>
       <c r="I224" s="2">
         <v>44638.46583333334</v>
       </c>
       <c r="J224" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K224">
         <v>11</v>
@@ -8748,23 +8010,23 @@
       <c r="B225" t="s">
         <v>234</v>
       </c>
-      <c r="C225" t="s">
-        <v>498</v>
+      <c r="C225">
+        <v>3700194711719</v>
       </c>
       <c r="F225" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G225" t="s">
-        <v>560</v>
-      </c>
-      <c r="H225" t="s">
-        <v>570</v>
+        <v>360</v>
+      </c>
+      <c r="H225">
+        <v>120</v>
       </c>
       <c r="I225" s="2">
         <v>44638.46596064815</v>
       </c>
       <c r="J225" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K225">
         <v>11</v>
@@ -8777,23 +8039,23 @@
       <c r="B226" t="s">
         <v>235</v>
       </c>
-      <c r="C226" t="s">
-        <v>498</v>
+      <c r="C226">
+        <v>3700194711719</v>
       </c>
       <c r="F226" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G226" t="s">
-        <v>560</v>
-      </c>
-      <c r="H226" t="s">
-        <v>595</v>
+        <v>360</v>
+      </c>
+      <c r="H226">
+        <v>360</v>
       </c>
       <c r="I226" s="2">
         <v>44638.47013888889</v>
       </c>
       <c r="J226" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K226">
         <v>11</v>
@@ -8806,23 +8068,23 @@
       <c r="B227" t="s">
         <v>236</v>
       </c>
-      <c r="C227" t="s">
-        <v>499</v>
+      <c r="C227">
+        <v>4710829830554</v>
       </c>
       <c r="F227" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G227" t="s">
-        <v>560</v>
-      </c>
-      <c r="H227" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H227">
+        <v>6</v>
       </c>
       <c r="I227" s="2">
         <v>44638.47430555556</v>
       </c>
       <c r="J227" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K227">
         <v>11</v>
@@ -8835,23 +8097,23 @@
       <c r="B228" t="s">
         <v>237</v>
       </c>
-      <c r="C228" t="s">
-        <v>500</v>
+      <c r="C228">
+        <v>4710829830868</v>
       </c>
       <c r="F228" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G228" t="s">
-        <v>560</v>
-      </c>
-      <c r="H228" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H228">
+        <v>12</v>
       </c>
       <c r="I228" s="2">
         <v>44638.47438657407</v>
       </c>
       <c r="J228" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K228">
         <v>11</v>
@@ -8865,19 +8127,19 @@
         <v>238</v>
       </c>
       <c r="C229" t="s">
-        <v>501</v>
+        <v>347</v>
       </c>
       <c r="F229" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G229" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="I229" s="2">
         <v>44638.47447916667</v>
       </c>
       <c r="J229" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K229">
         <v>11</v>
@@ -8890,23 +8152,23 @@
       <c r="B230" t="s">
         <v>239</v>
       </c>
-      <c r="C230" t="s">
-        <v>502</v>
+      <c r="C230">
+        <v>4713233862418</v>
       </c>
       <c r="F230" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G230" t="s">
-        <v>560</v>
-      </c>
-      <c r="H230" t="s">
-        <v>602</v>
+        <v>360</v>
+      </c>
+      <c r="H230">
+        <v>70</v>
       </c>
       <c r="I230" s="2">
         <v>44638.47461805555</v>
       </c>
       <c r="J230" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K230">
         <v>11</v>
@@ -8919,23 +8181,23 @@
       <c r="B231" t="s">
         <v>240</v>
       </c>
-      <c r="C231" t="s">
-        <v>503</v>
+      <c r="C231">
+        <v>4713233862364</v>
       </c>
       <c r="F231" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G231" t="s">
-        <v>560</v>
-      </c>
-      <c r="H231" t="s">
-        <v>565</v>
+        <v>360</v>
+      </c>
+      <c r="H231">
+        <v>50</v>
       </c>
       <c r="I231" s="2">
         <v>44638.47513888889</v>
       </c>
       <c r="J231" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K231">
         <v>11</v>
@@ -8948,23 +8210,23 @@
       <c r="B232" t="s">
         <v>241</v>
       </c>
-      <c r="C232" t="s">
-        <v>504</v>
+      <c r="C232">
+        <v>4713233869226</v>
       </c>
       <c r="F232" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G232" t="s">
-        <v>560</v>
-      </c>
-      <c r="H232" t="s">
-        <v>602</v>
+        <v>360</v>
+      </c>
+      <c r="H232">
+        <v>70</v>
       </c>
       <c r="I232" s="2">
         <v>44638.47523148148</v>
       </c>
       <c r="J232" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K232">
         <v>11</v>
@@ -8977,23 +8239,23 @@
       <c r="B233" t="s">
         <v>242</v>
       </c>
-      <c r="C233" t="s">
-        <v>505</v>
+      <c r="C233">
+        <v>4901525003278</v>
       </c>
       <c r="F233" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G233" t="s">
-        <v>560</v>
-      </c>
-      <c r="H233" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H233">
+        <v>24</v>
       </c>
       <c r="I233" s="2">
         <v>44638.47840277778</v>
       </c>
       <c r="J233" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K233">
         <v>11</v>
@@ -9006,23 +8268,23 @@
       <c r="B234" t="s">
         <v>243</v>
       </c>
-      <c r="C234" t="s">
-        <v>506</v>
+      <c r="C234">
+        <v>4901525003261</v>
       </c>
       <c r="F234" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G234" t="s">
-        <v>560</v>
-      </c>
-      <c r="H234" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H234">
+        <v>24</v>
       </c>
       <c r="I234" s="2">
         <v>44638.47855324074</v>
       </c>
       <c r="J234" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K234">
         <v>11</v>
@@ -9035,23 +8297,23 @@
       <c r="B235" t="s">
         <v>244</v>
       </c>
-      <c r="C235" t="s">
-        <v>507</v>
+      <c r="C235">
+        <v>4901525008280</v>
       </c>
       <c r="F235" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G235" t="s">
-        <v>560</v>
-      </c>
-      <c r="H235" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H235">
+        <v>12</v>
       </c>
       <c r="I235" s="2">
         <v>44638.47865740741</v>
       </c>
       <c r="J235" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K235">
         <v>11</v>
@@ -9064,23 +8326,23 @@
       <c r="B236" t="s">
         <v>245</v>
       </c>
-      <c r="C236" t="s">
-        <v>508</v>
+      <c r="C236">
+        <v>783054123221</v>
       </c>
       <c r="F236" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G236" t="s">
-        <v>560</v>
-      </c>
-      <c r="H236" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H236">
+        <v>12</v>
       </c>
       <c r="I236" s="2">
         <v>44638.47875</v>
       </c>
       <c r="J236" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K236">
         <v>11</v>
@@ -9093,23 +8355,23 @@
       <c r="B237" t="s">
         <v>246</v>
       </c>
-      <c r="C237" t="s">
-        <v>509</v>
+      <c r="C237">
+        <v>4710678220308</v>
       </c>
       <c r="F237" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G237" t="s">
-        <v>560</v>
-      </c>
-      <c r="H237" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H237">
+        <v>12</v>
       </c>
       <c r="I237" s="2">
         <v>44638.47883101852</v>
       </c>
       <c r="J237" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K237">
         <v>11</v>
@@ -9122,23 +8384,23 @@
       <c r="B238" t="s">
         <v>247</v>
       </c>
-      <c r="C238" t="s">
-        <v>510</v>
+      <c r="C238">
+        <v>471067810539101</v>
       </c>
       <c r="F238" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G238" t="s">
-        <v>560</v>
-      </c>
-      <c r="H238" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
       </c>
       <c r="I238" s="2">
         <v>44638.47895833333</v>
       </c>
       <c r="J238" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K238">
         <v>11</v>
@@ -9151,23 +8413,23 @@
       <c r="B239" t="s">
         <v>248</v>
       </c>
-      <c r="C239" t="s">
-        <v>511</v>
+      <c r="C239">
+        <v>4901525008297</v>
       </c>
       <c r="F239" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G239" t="s">
-        <v>560</v>
-      </c>
-      <c r="H239" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H239">
+        <v>12</v>
       </c>
       <c r="I239" s="2">
         <v>44638.4790625</v>
       </c>
       <c r="J239" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K239">
         <v>11</v>
@@ -9180,23 +8442,23 @@
       <c r="B240" t="s">
         <v>249</v>
       </c>
-      <c r="C240" t="s">
-        <v>512</v>
+      <c r="C240">
+        <v>78305421936801</v>
       </c>
       <c r="F240" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G240" t="s">
-        <v>560</v>
-      </c>
-      <c r="H240" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
       </c>
       <c r="I240" s="2">
         <v>44638.47913194444</v>
       </c>
       <c r="J240" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K240">
         <v>11</v>
@@ -9209,23 +8471,23 @@
       <c r="B241" t="s">
         <v>250</v>
       </c>
-      <c r="C241" t="s">
-        <v>513</v>
+      <c r="C241">
+        <v>78305421939901</v>
       </c>
       <c r="F241" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G241" t="s">
-        <v>560</v>
-      </c>
-      <c r="H241" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
       </c>
       <c r="I241" s="2">
         <v>44638.47920138889</v>
       </c>
       <c r="J241" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K241">
         <v>11</v>
@@ -9238,23 +8500,23 @@
       <c r="B242" t="s">
         <v>251</v>
       </c>
-      <c r="C242" t="s">
-        <v>514</v>
+      <c r="C242">
+        <v>78305421932001</v>
       </c>
       <c r="F242" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G242" t="s">
-        <v>560</v>
-      </c>
-      <c r="H242" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
       </c>
       <c r="I242" s="2">
         <v>44638.47943287037</v>
       </c>
       <c r="J242" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K242">
         <v>11</v>
@@ -9267,23 +8529,23 @@
       <c r="B243" t="s">
         <v>252</v>
       </c>
-      <c r="C243" t="s">
-        <v>515</v>
+      <c r="C243">
+        <v>78305421940501</v>
       </c>
       <c r="F243" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G243" t="s">
-        <v>560</v>
-      </c>
-      <c r="H243" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
       </c>
       <c r="I243" s="2">
         <v>44638.47951388889</v>
       </c>
       <c r="J243" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K243">
         <v>11</v>
@@ -9296,23 +8558,23 @@
       <c r="B244" t="s">
         <v>253</v>
       </c>
-      <c r="C244" t="s">
-        <v>516</v>
+      <c r="C244">
+        <v>78305421935101</v>
       </c>
       <c r="F244" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G244" t="s">
-        <v>560</v>
-      </c>
-      <c r="H244" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
       </c>
       <c r="I244" s="2">
         <v>44638.47956018519</v>
       </c>
       <c r="J244" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K244">
         <v>11</v>
@@ -9325,23 +8587,23 @@
       <c r="B245" t="s">
         <v>254</v>
       </c>
-      <c r="C245" t="s">
-        <v>517</v>
+      <c r="C245">
+        <v>78305421951701</v>
       </c>
       <c r="F245" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G245" t="s">
-        <v>560</v>
-      </c>
-      <c r="H245" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
       </c>
       <c r="I245" s="2">
         <v>44638.47960648148</v>
       </c>
       <c r="J245" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K245">
         <v>11</v>
@@ -9354,23 +8616,23 @@
       <c r="B246" t="s">
         <v>255</v>
       </c>
-      <c r="C246" t="s">
-        <v>518</v>
+      <c r="C246">
+        <v>78305421961001</v>
       </c>
       <c r="F246" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G246" t="s">
-        <v>560</v>
-      </c>
-      <c r="H246" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
       </c>
       <c r="I246" s="2">
         <v>44638.4796875</v>
       </c>
       <c r="J246" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K246">
         <v>11</v>
@@ -9383,23 +8645,23 @@
       <c r="B247" t="s">
         <v>256</v>
       </c>
-      <c r="C247" t="s">
-        <v>519</v>
+      <c r="C247">
+        <v>4710960912164</v>
       </c>
       <c r="F247" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G247" t="s">
-        <v>560</v>
-      </c>
-      <c r="H247" t="s">
-        <v>603</v>
+        <v>360</v>
+      </c>
+      <c r="H247">
+        <v>420</v>
       </c>
       <c r="I247" s="2">
         <v>44638.48165509259</v>
       </c>
       <c r="J247" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K247">
         <v>11</v>
@@ -9412,23 +8674,23 @@
       <c r="B248" t="s">
         <v>257</v>
       </c>
-      <c r="C248" t="s">
-        <v>520</v>
+      <c r="C248">
+        <v>4710960912577</v>
       </c>
       <c r="F248" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G248" t="s">
-        <v>560</v>
-      </c>
-      <c r="H248" t="s">
-        <v>585</v>
+        <v>360</v>
+      </c>
+      <c r="H248">
+        <v>60</v>
       </c>
       <c r="I248" s="2">
         <v>44638.48230324074</v>
       </c>
       <c r="J248" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K248">
         <v>11</v>
@@ -9441,23 +8703,23 @@
       <c r="B249" t="s">
         <v>258</v>
       </c>
-      <c r="C249" t="s">
-        <v>521</v>
+      <c r="C249">
+        <v>5709954034783</v>
       </c>
       <c r="F249" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G249" t="s">
-        <v>560</v>
-      </c>
-      <c r="H249" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H249">
+        <v>24</v>
       </c>
       <c r="I249" s="2">
         <v>44638.48283564814</v>
       </c>
       <c r="J249" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K249">
         <v>11</v>
@@ -9471,22 +8733,22 @@
         <v>259</v>
       </c>
       <c r="C250" t="s">
-        <v>522</v>
+        <v>348</v>
       </c>
       <c r="F250" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G250" t="s">
-        <v>560</v>
-      </c>
-      <c r="H250" t="s">
-        <v>602</v>
+        <v>360</v>
+      </c>
+      <c r="H250">
+        <v>70</v>
       </c>
       <c r="I250" s="2">
         <v>44638.48586805556</v>
       </c>
       <c r="J250" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K250">
         <v>11</v>
@@ -9500,22 +8762,22 @@
         <v>260</v>
       </c>
       <c r="C251" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="F251" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G251" t="s">
-        <v>560</v>
-      </c>
-      <c r="H251" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H251">
+        <v>3</v>
       </c>
       <c r="I251" s="2">
         <v>44638.48601851852</v>
       </c>
       <c r="J251" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K251">
         <v>11</v>
@@ -9529,22 +8791,22 @@
         <v>261</v>
       </c>
       <c r="C252" t="s">
-        <v>523</v>
+        <v>349</v>
       </c>
       <c r="F252" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G252" t="s">
-        <v>560</v>
-      </c>
-      <c r="H252" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H252">
+        <v>3</v>
       </c>
       <c r="I252" s="2">
         <v>44638.48702546296</v>
       </c>
       <c r="J252" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K252">
         <v>11</v>
@@ -9558,22 +8820,22 @@
         <v>262</v>
       </c>
       <c r="C253" t="s">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="F253" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G253" t="s">
-        <v>560</v>
-      </c>
-      <c r="H253" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H253">
+        <v>3</v>
       </c>
       <c r="I253" s="2">
         <v>44638.48719907407</v>
       </c>
       <c r="J253" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K253">
         <v>11</v>
@@ -9587,22 +8849,22 @@
         <v>263</v>
       </c>
       <c r="C254" t="s">
-        <v>525</v>
+        <v>351</v>
       </c>
       <c r="F254" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G254" t="s">
-        <v>560</v>
-      </c>
-      <c r="H254" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H254">
+        <v>3</v>
       </c>
       <c r="I254" s="2">
         <v>44638.48726851852</v>
       </c>
       <c r="J254" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K254">
         <v>11</v>
@@ -9616,22 +8878,22 @@
         <v>264</v>
       </c>
       <c r="C255" t="s">
-        <v>526</v>
+        <v>352</v>
       </c>
       <c r="F255" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G255" t="s">
-        <v>560</v>
-      </c>
-      <c r="H255" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H255">
+        <v>3</v>
       </c>
       <c r="I255" s="2">
         <v>44638.48731481482</v>
       </c>
       <c r="J255" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K255">
         <v>11</v>
@@ -9645,22 +8907,22 @@
         <v>265</v>
       </c>
       <c r="C256" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="F256" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G256" t="s">
-        <v>560</v>
-      </c>
-      <c r="H256" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H256">
+        <v>3</v>
       </c>
       <c r="I256" s="2">
         <v>44638.4875462963</v>
       </c>
       <c r="J256" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K256">
         <v>11</v>
@@ -9674,22 +8936,22 @@
         <v>266</v>
       </c>
       <c r="C257" t="s">
-        <v>527</v>
+        <v>353</v>
       </c>
       <c r="F257" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G257" t="s">
-        <v>560</v>
-      </c>
-      <c r="H257" t="s">
-        <v>588</v>
+        <v>360</v>
+      </c>
+      <c r="H257">
+        <v>3</v>
       </c>
       <c r="I257" s="2">
         <v>44638.48775462963</v>
       </c>
       <c r="J257" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K257">
         <v>11</v>
@@ -9703,22 +8965,22 @@
         <v>267</v>
       </c>
       <c r="C258" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
       <c r="F258" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G258" t="s">
-        <v>560</v>
-      </c>
-      <c r="H258" t="s">
-        <v>562</v>
+        <v>360</v>
+      </c>
+      <c r="H258">
+        <v>10</v>
       </c>
       <c r="I258" s="2">
         <v>44638.48813657407</v>
       </c>
       <c r="J258" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K258">
         <v>11</v>
@@ -9732,22 +8994,22 @@
         <v>268</v>
       </c>
       <c r="C259" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
       <c r="F259" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G259" t="s">
-        <v>560</v>
-      </c>
-      <c r="H259" t="s">
-        <v>562</v>
+        <v>360</v>
+      </c>
+      <c r="H259">
+        <v>10</v>
       </c>
       <c r="I259" s="2">
         <v>44638.48841435185</v>
       </c>
       <c r="J259" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K259">
         <v>11</v>
@@ -9760,23 +9022,23 @@
       <c r="B260" t="s">
         <v>269</v>
       </c>
-      <c r="C260" t="s">
-        <v>529</v>
+      <c r="C260">
+        <v>34710090023120</v>
       </c>
       <c r="F260" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G260" t="s">
-        <v>560</v>
-      </c>
-      <c r="H260" t="s">
-        <v>596</v>
+        <v>360</v>
+      </c>
+      <c r="H260">
+        <v>8</v>
       </c>
       <c r="I260" s="2">
         <v>44638.49233796296</v>
       </c>
       <c r="J260" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K260">
         <v>11</v>
@@ -9789,23 +9051,23 @@
       <c r="B261" t="s">
         <v>270</v>
       </c>
-      <c r="C261" t="s">
-        <v>530</v>
+      <c r="C261">
+        <v>4710090053355</v>
       </c>
       <c r="F261" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G261" t="s">
-        <v>560</v>
-      </c>
-      <c r="H261" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H261">
+        <v>12</v>
       </c>
       <c r="I261" s="2">
         <v>44638.49268518519</v>
       </c>
       <c r="J261" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K261">
         <v>11</v>
@@ -9818,23 +9080,23 @@
       <c r="B262" t="s">
         <v>271</v>
       </c>
-      <c r="C262" t="s">
-        <v>531</v>
+      <c r="C262">
+        <v>4901201144486</v>
       </c>
       <c r="F262" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G262" t="s">
-        <v>560</v>
-      </c>
-      <c r="H262" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H262">
+        <v>12</v>
       </c>
       <c r="I262" s="2">
         <v>44638.49280092592</v>
       </c>
       <c r="J262" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K262">
         <v>11</v>
@@ -9847,23 +9109,23 @@
       <c r="B263" t="s">
         <v>272</v>
       </c>
-      <c r="C263" t="s">
-        <v>532</v>
+      <c r="C263">
+        <v>4710090053317</v>
       </c>
       <c r="F263" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G263" t="s">
-        <v>560</v>
-      </c>
-      <c r="H263" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H263">
+        <v>24</v>
       </c>
       <c r="I263" s="2">
         <v>44638.49299768519</v>
       </c>
       <c r="J263" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K263">
         <v>11</v>
@@ -9876,23 +9138,23 @@
       <c r="B264" t="s">
         <v>273</v>
       </c>
-      <c r="C264" t="s">
-        <v>533</v>
+      <c r="C264">
+        <v>4901201144479</v>
       </c>
       <c r="F264" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G264" t="s">
-        <v>560</v>
-      </c>
-      <c r="H264" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H264">
+        <v>12</v>
       </c>
       <c r="I264" s="2">
         <v>44638.49319444445</v>
       </c>
       <c r="J264" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K264">
         <v>11</v>
@@ -9905,23 +9167,23 @@
       <c r="B265" t="s">
         <v>274</v>
       </c>
-      <c r="C265" t="s">
-        <v>534</v>
+      <c r="C265">
+        <v>4710090060469</v>
       </c>
       <c r="F265" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G265" t="s">
-        <v>560</v>
-      </c>
-      <c r="H265" t="s">
-        <v>573</v>
+        <v>360</v>
+      </c>
+      <c r="H265">
+        <v>36</v>
       </c>
       <c r="I265" s="2">
         <v>44638.4934375</v>
       </c>
       <c r="J265" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K265">
         <v>11</v>
@@ -9934,23 +9196,23 @@
       <c r="B266" t="s">
         <v>275</v>
       </c>
-      <c r="C266" t="s">
-        <v>535</v>
+      <c r="C266">
+        <v>4710090060827</v>
       </c>
       <c r="F266" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G266" t="s">
-        <v>560</v>
-      </c>
-      <c r="H266" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H266">
+        <v>12</v>
       </c>
       <c r="I266" s="2">
         <v>44638.49353009259</v>
       </c>
       <c r="J266" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K266">
         <v>11</v>
@@ -9963,23 +9225,23 @@
       <c r="B267" t="s">
         <v>276</v>
       </c>
-      <c r="C267" t="s">
-        <v>536</v>
+      <c r="C267">
+        <v>4710090053348</v>
       </c>
       <c r="F267" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G267" t="s">
-        <v>560</v>
-      </c>
-      <c r="H267" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H267">
+        <v>12</v>
       </c>
       <c r="I267" s="2">
         <v>44638.49368055556</v>
       </c>
       <c r="J267" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K267">
         <v>11</v>
@@ -9992,23 +9254,23 @@
       <c r="B268" t="s">
         <v>277</v>
       </c>
-      <c r="C268" t="s">
-        <v>537</v>
+      <c r="C268">
+        <v>4710090053324</v>
       </c>
       <c r="F268" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G268" t="s">
-        <v>560</v>
-      </c>
-      <c r="H268" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H268">
+        <v>24</v>
       </c>
       <c r="I268" s="2">
         <v>44638.49381944445</v>
       </c>
       <c r="J268" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K268">
         <v>11</v>
@@ -10021,23 +9283,23 @@
       <c r="B269" t="s">
         <v>278</v>
       </c>
-      <c r="C269" t="s">
-        <v>538</v>
+      <c r="C269">
+        <v>4710090052303</v>
       </c>
       <c r="F269" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G269" t="s">
-        <v>560</v>
-      </c>
-      <c r="H269" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H269">
+        <v>12</v>
       </c>
       <c r="I269" s="2">
         <v>44638.49398148148</v>
       </c>
       <c r="J269" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K269">
         <v>11</v>
@@ -10050,23 +9312,23 @@
       <c r="B270" t="s">
         <v>279</v>
       </c>
-      <c r="C270" t="s">
-        <v>539</v>
+      <c r="C270">
+        <v>4901201101236</v>
       </c>
       <c r="F270" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G270" t="s">
-        <v>560</v>
-      </c>
-      <c r="H270" t="s">
-        <v>572</v>
+        <v>360</v>
+      </c>
+      <c r="H270">
+        <v>240</v>
       </c>
       <c r="I270" s="2">
         <v>44638.49471064815</v>
       </c>
       <c r="J270" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K270">
         <v>11</v>
@@ -10079,23 +9341,23 @@
       <c r="B271" t="s">
         <v>280</v>
       </c>
-      <c r="C271" t="s">
-        <v>540</v>
+      <c r="C271">
+        <v>4710090052327</v>
       </c>
       <c r="F271" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G271" t="s">
-        <v>560</v>
-      </c>
-      <c r="H271" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H271">
+        <v>12</v>
       </c>
       <c r="I271" s="2">
         <v>44638.49487268519</v>
       </c>
       <c r="J271" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K271">
         <v>11</v>
@@ -10108,23 +9370,23 @@
       <c r="B272" t="s">
         <v>281</v>
       </c>
-      <c r="C272" t="s">
-        <v>541</v>
+      <c r="C272">
+        <v>9000100753401</v>
       </c>
       <c r="F272" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G272" t="s">
-        <v>560</v>
-      </c>
-      <c r="H272" t="s">
-        <v>604</v>
+        <v>360</v>
+      </c>
+      <c r="H272">
+        <v>18</v>
       </c>
       <c r="I272" s="2">
         <v>44638.57996527778</v>
       </c>
       <c r="J272" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K272">
         <v>13</v>
@@ -10137,23 +9399,23 @@
       <c r="B273" t="s">
         <v>282</v>
       </c>
-      <c r="C273" t="s">
-        <v>542</v>
+      <c r="C273">
+        <v>9000100753371</v>
       </c>
       <c r="F273" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G273" t="s">
-        <v>560</v>
-      </c>
-      <c r="H273" t="s">
-        <v>604</v>
+        <v>360</v>
+      </c>
+      <c r="H273">
+        <v>18</v>
       </c>
       <c r="I273" s="2">
         <v>44638.58006944445</v>
       </c>
       <c r="J273" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K273">
         <v>13</v>
@@ -10166,23 +9428,23 @@
       <c r="B274" t="s">
         <v>283</v>
       </c>
-      <c r="C274" t="s">
-        <v>543</v>
+      <c r="C274">
+        <v>9000100956192</v>
       </c>
       <c r="F274" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G274" t="s">
-        <v>560</v>
-      </c>
-      <c r="H274" t="s">
-        <v>604</v>
+        <v>360</v>
+      </c>
+      <c r="H274">
+        <v>18</v>
       </c>
       <c r="I274" s="2">
         <v>44638.58012731482</v>
       </c>
       <c r="J274" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K274">
         <v>13</v>
@@ -10195,23 +9457,23 @@
       <c r="B275" t="s">
         <v>284</v>
       </c>
-      <c r="C275" t="s">
-        <v>544</v>
+      <c r="C275">
+        <v>4902430759168</v>
       </c>
       <c r="F275" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G275" t="s">
-        <v>560</v>
-      </c>
-      <c r="H275" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H275">
+        <v>6</v>
       </c>
       <c r="I275" s="2">
         <v>44638.58021990741</v>
       </c>
       <c r="J275" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K275">
         <v>13</v>
@@ -10224,23 +9486,23 @@
       <c r="B276" t="s">
         <v>285</v>
       </c>
-      <c r="C276" t="s">
-        <v>545</v>
+      <c r="C276">
+        <v>4902430759502</v>
       </c>
       <c r="F276" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G276" t="s">
-        <v>560</v>
-      </c>
-      <c r="H276" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H276">
+        <v>6</v>
       </c>
       <c r="I276" s="2">
         <v>44638.5802662037</v>
       </c>
       <c r="J276" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K276">
         <v>13</v>
@@ -10253,23 +9515,23 @@
       <c r="B277" t="s">
         <v>286</v>
       </c>
-      <c r="C277" t="s">
-        <v>546</v>
+      <c r="C277">
+        <v>4902430363921</v>
       </c>
       <c r="F277" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G277" t="s">
-        <v>560</v>
-      </c>
-      <c r="H277" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H277">
+        <v>6</v>
       </c>
       <c r="I277" s="2">
         <v>44638.58035879629</v>
       </c>
       <c r="J277" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K277">
         <v>13</v>
@@ -10282,23 +9544,23 @@
       <c r="B278" t="s">
         <v>287</v>
       </c>
-      <c r="C278" t="s">
-        <v>547</v>
+      <c r="C278">
+        <v>4902430363938</v>
       </c>
       <c r="F278" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G278" t="s">
-        <v>560</v>
-      </c>
-      <c r="H278" t="s">
-        <v>583</v>
+        <v>360</v>
+      </c>
+      <c r="H278">
+        <v>6</v>
       </c>
       <c r="I278" s="2">
         <v>44638.58040509259</v>
       </c>
       <c r="J278" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K278">
         <v>13</v>
@@ -10311,23 +9573,23 @@
       <c r="B279" t="s">
         <v>288</v>
       </c>
-      <c r="C279" t="s">
-        <v>548</v>
+      <c r="C279">
+        <v>9000100753340</v>
       </c>
       <c r="F279" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G279" t="s">
-        <v>560</v>
-      </c>
-      <c r="H279" t="s">
-        <v>604</v>
+        <v>360</v>
+      </c>
+      <c r="H279">
+        <v>18</v>
       </c>
       <c r="I279" s="2">
         <v>44638.58064814815</v>
       </c>
       <c r="J279" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K279">
         <v>13</v>
@@ -10340,23 +9602,23 @@
       <c r="B280" t="s">
         <v>289</v>
       </c>
-      <c r="C280" t="s">
-        <v>549</v>
+      <c r="C280">
+        <v>4901616011014</v>
       </c>
       <c r="F280" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G280" t="s">
-        <v>560</v>
-      </c>
-      <c r="H280" t="s">
-        <v>573</v>
+        <v>360</v>
+      </c>
+      <c r="H280">
+        <v>36</v>
       </c>
       <c r="I280" s="2">
         <v>44638.58155092593</v>
       </c>
       <c r="J280" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K280">
         <v>13</v>
@@ -10369,23 +9631,23 @@
       <c r="B281" t="s">
         <v>290</v>
       </c>
-      <c r="C281" t="s">
-        <v>550</v>
+      <c r="C281">
+        <v>4901616011021</v>
       </c>
       <c r="F281" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G281" t="s">
-        <v>560</v>
-      </c>
-      <c r="H281" t="s">
-        <v>573</v>
+        <v>360</v>
+      </c>
+      <c r="H281">
+        <v>36</v>
       </c>
       <c r="I281" s="2">
         <v>44638.58162037037</v>
       </c>
       <c r="J281" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K281">
         <v>13</v>
@@ -10398,23 +9660,23 @@
       <c r="B282" t="s">
         <v>291</v>
       </c>
-      <c r="C282" t="s">
-        <v>551</v>
+      <c r="C282">
+        <v>4901616011007</v>
       </c>
       <c r="F282" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G282" t="s">
-        <v>560</v>
-      </c>
-      <c r="H282" t="s">
-        <v>575</v>
+        <v>360</v>
+      </c>
+      <c r="H282">
+        <v>24</v>
       </c>
       <c r="I282" s="2">
         <v>44638.58168981481</v>
       </c>
       <c r="J282" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K282">
         <v>13</v>
@@ -10427,23 +9689,23 @@
       <c r="B283" t="s">
         <v>292</v>
       </c>
-      <c r="C283" t="s">
-        <v>552</v>
+      <c r="C283">
+        <v>9000101323047</v>
       </c>
       <c r="F283" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G283" t="s">
-        <v>560</v>
-      </c>
-      <c r="H283" t="s">
-        <v>579</v>
+        <v>360</v>
+      </c>
+      <c r="H283">
+        <v>12</v>
       </c>
       <c r="I283" s="2">
         <v>44638.58177083333</v>
       </c>
       <c r="J283" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K283">
         <v>13</v>
@@ -10456,23 +9718,23 @@
       <c r="B284" t="s">
         <v>293</v>
       </c>
-      <c r="C284" t="s">
-        <v>553</v>
+      <c r="C284">
+        <v>4006387105099</v>
       </c>
       <c r="F284" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G284" t="s">
-        <v>560</v>
-      </c>
-      <c r="H284" t="s">
-        <v>605</v>
+        <v>360</v>
+      </c>
+      <c r="H284">
+        <v>160</v>
       </c>
       <c r="I284" s="2">
         <v>44638.584375</v>
       </c>
       <c r="J284" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K284">
         <v>14</v>
@@ -10485,23 +9747,23 @@
       <c r="B285" t="s">
         <v>294</v>
       </c>
-      <c r="C285" t="s">
-        <v>554</v>
+      <c r="C285">
+        <v>4006387105129</v>
       </c>
       <c r="F285" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G285" t="s">
-        <v>560</v>
-      </c>
-      <c r="H285" t="s">
-        <v>606</v>
+        <v>360</v>
+      </c>
+      <c r="H285">
+        <v>80</v>
       </c>
       <c r="I285" s="2">
         <v>44638.59204861111</v>
       </c>
       <c r="J285" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="K285">
         <v>14</v>
